--- a/lease/data/house_box_NTC.xlsx
+++ b/lease/data/house_box_NTC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1224">
   <si>
     <t>post_id</t>
   </si>
@@ -2612,9 +2612,6 @@
   </si>
   <si>
     <t>近A9捷運站</t>
-  </si>
-  <si>
-    <t>近致理商專公車站, 警察局公車站, 新埔.新站捷運站, 板橋新站火車站</t>
   </si>
   <si>
     <t>近福和里公車站, 頂溪捷運站</t>
@@ -13552,15 +13549,6 @@
       <c r="B657">
         <v>6931066</v>
       </c>
-      <c r="C657" t="s">
-        <v>14</v>
-      </c>
-      <c r="D657" t="s">
-        <v>513</v>
-      </c>
-      <c r="E657" t="s">
-        <v>866</v>
-      </c>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="1">
@@ -13576,7 +13564,7 @@
         <v>513</v>
       </c>
       <c r="E658" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -13593,7 +13581,7 @@
         <v>513</v>
       </c>
       <c r="E659" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -13618,7 +13606,7 @@
         <v>552</v>
       </c>
       <c r="E661" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -13635,7 +13623,7 @@
         <v>519</v>
       </c>
       <c r="E662" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -13677,7 +13665,7 @@
         <v>512</v>
       </c>
       <c r="E665" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -13775,7 +13763,7 @@
         <v>513</v>
       </c>
       <c r="E672" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -13792,7 +13780,7 @@
         <v>513</v>
       </c>
       <c r="E673" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -13825,7 +13813,7 @@
         <v>513</v>
       </c>
       <c r="E676" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14048,7 +14036,7 @@
         <v>524</v>
       </c>
       <c r="E702" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -14093,7 +14081,7 @@
         <v>559</v>
       </c>
       <c r="E705" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -14110,7 +14098,7 @@
         <v>564</v>
       </c>
       <c r="E706" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -14135,7 +14123,7 @@
         <v>513</v>
       </c>
       <c r="E708" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -14152,7 +14140,7 @@
         <v>538</v>
       </c>
       <c r="E709" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -14169,7 +14157,7 @@
         <v>540</v>
       </c>
       <c r="E710" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -14208,7 +14196,7 @@
         <v>552</v>
       </c>
       <c r="E713" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -14253,7 +14241,7 @@
         <v>513</v>
       </c>
       <c r="E716" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -14425,7 +14413,7 @@
         <v>567</v>
       </c>
       <c r="E730" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -14554,7 +14542,7 @@
         <v>545</v>
       </c>
       <c r="E739" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -14571,7 +14559,7 @@
         <v>586</v>
       </c>
       <c r="E740" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -14607,7 +14595,7 @@
         <v>35</v>
       </c>
       <c r="E743" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -14624,7 +14612,7 @@
         <v>513</v>
       </c>
       <c r="E744" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -14641,7 +14629,7 @@
         <v>564</v>
       </c>
       <c r="E745" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -14658,7 +14646,7 @@
         <v>513</v>
       </c>
       <c r="E746" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -14675,7 +14663,7 @@
         <v>513</v>
       </c>
       <c r="E747" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -14706,7 +14694,7 @@
         <v>513</v>
       </c>
       <c r="E749" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -14723,7 +14711,7 @@
         <v>535</v>
       </c>
       <c r="E750" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -14768,7 +14756,7 @@
         <v>513</v>
       </c>
       <c r="E753" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -14793,7 +14781,7 @@
         <v>513</v>
       </c>
       <c r="E755" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -14810,7 +14798,7 @@
         <v>513</v>
       </c>
       <c r="E756" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -14877,7 +14865,7 @@
         <v>552</v>
       </c>
       <c r="E761" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -14891,7 +14879,7 @@
         <v>74</v>
       </c>
       <c r="E762" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -14936,7 +14924,7 @@
         <v>545</v>
       </c>
       <c r="E765" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -14967,7 +14955,7 @@
         <v>521</v>
       </c>
       <c r="E767" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -14998,7 +14986,7 @@
         <v>521</v>
       </c>
       <c r="E769" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -15029,7 +15017,7 @@
         <v>574</v>
       </c>
       <c r="E771" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -15091,7 +15079,7 @@
         <v>540</v>
       </c>
       <c r="E775" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -15125,7 +15113,7 @@
         <v>514</v>
       </c>
       <c r="E777" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -15192,7 +15180,7 @@
         <v>564</v>
       </c>
       <c r="E782" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -15206,7 +15194,7 @@
         <v>9</v>
       </c>
       <c r="E783" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -15290,7 +15278,7 @@
         <v>513</v>
       </c>
       <c r="E789" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -15307,7 +15295,7 @@
         <v>513</v>
       </c>
       <c r="E790" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -15324,7 +15312,7 @@
         <v>513</v>
       </c>
       <c r="E791" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -15341,7 +15329,7 @@
         <v>513</v>
       </c>
       <c r="E792" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -15358,7 +15346,7 @@
         <v>524</v>
       </c>
       <c r="E793" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -15375,7 +15363,7 @@
         <v>513</v>
       </c>
       <c r="E794" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -15400,7 +15388,7 @@
         <v>519</v>
       </c>
       <c r="E796" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -15417,7 +15405,7 @@
         <v>513</v>
       </c>
       <c r="E797" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -15434,7 +15422,7 @@
         <v>513</v>
       </c>
       <c r="E798" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -15483,7 +15471,7 @@
         <v>524</v>
       </c>
       <c r="E803" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -15500,7 +15488,7 @@
         <v>526</v>
       </c>
       <c r="E804" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -15619,7 +15607,7 @@
         <v>587</v>
       </c>
       <c r="E817" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -15644,7 +15632,7 @@
         <v>512</v>
       </c>
       <c r="E819" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="820" spans="1:5">
@@ -15773,7 +15761,7 @@
         <v>545</v>
       </c>
       <c r="E828" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -15877,7 +15865,7 @@
         <v>513</v>
       </c>
       <c r="E835" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -15894,7 +15882,7 @@
         <v>545</v>
       </c>
       <c r="E836" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="837" spans="1:5">
@@ -15959,7 +15947,7 @@
         <v>517</v>
       </c>
       <c r="E840" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="841" spans="1:5">
@@ -15976,7 +15964,7 @@
         <v>559</v>
       </c>
       <c r="E841" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -16035,7 +16023,7 @@
         <v>521</v>
       </c>
       <c r="E845" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -16088,7 +16076,7 @@
         <v>513</v>
       </c>
       <c r="E849" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="850" spans="1:5">
@@ -16105,7 +16093,7 @@
         <v>529</v>
       </c>
       <c r="E850" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="851" spans="1:5">
@@ -16170,7 +16158,7 @@
         <v>545</v>
       </c>
       <c r="E857" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -16195,7 +16183,7 @@
         <v>528</v>
       </c>
       <c r="E859" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -16212,7 +16200,7 @@
         <v>528</v>
       </c>
       <c r="E860" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -16274,7 +16262,7 @@
         <v>521</v>
       </c>
       <c r="E864" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -16310,7 +16298,7 @@
         <v>520</v>
       </c>
       <c r="E867" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -16327,7 +16315,7 @@
         <v>526</v>
       </c>
       <c r="E868" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -16406,7 +16394,7 @@
         <v>532</v>
       </c>
       <c r="E876" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -16423,7 +16411,7 @@
         <v>535</v>
       </c>
       <c r="E877" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -16544,7 +16532,7 @@
         <v>513</v>
       </c>
       <c r="E885" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="886" spans="1:5">
@@ -16575,7 +16563,7 @@
         <v>513</v>
       </c>
       <c r="E887" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -16646,7 +16634,7 @@
         <v>554</v>
       </c>
       <c r="E894" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="895" spans="1:5">
@@ -16764,7 +16752,7 @@
         <v>521</v>
       </c>
       <c r="E902" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="903" spans="1:5">
@@ -16817,7 +16805,7 @@
         <v>513</v>
       </c>
       <c r="E906" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -16834,7 +16822,7 @@
         <v>513</v>
       </c>
       <c r="E907" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="908" spans="1:5">
@@ -16893,7 +16881,7 @@
         <v>526</v>
       </c>
       <c r="E911" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="912" spans="1:5">
@@ -16910,7 +16898,7 @@
         <v>521</v>
       </c>
       <c r="E912" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="913" spans="1:5">
@@ -16932,7 +16920,7 @@
         <v>35</v>
       </c>
       <c r="E914" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -16991,7 +16979,7 @@
         <v>520</v>
       </c>
       <c r="E918" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="919" spans="1:5">
@@ -17064,7 +17052,7 @@
         <v>564</v>
       </c>
       <c r="E923" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="924" spans="1:5">
@@ -17081,7 +17069,7 @@
         <v>513</v>
       </c>
       <c r="E924" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="925" spans="1:5">
@@ -17095,7 +17083,7 @@
         <v>23</v>
       </c>
       <c r="E925" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="926" spans="1:5">
@@ -17112,7 +17100,7 @@
         <v>521</v>
       </c>
       <c r="E926" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="927" spans="1:5">
@@ -17176,7 +17164,7 @@
         <v>513</v>
       </c>
       <c r="E931" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -17193,7 +17181,7 @@
         <v>526</v>
       </c>
       <c r="E932" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="933" spans="1:5">
@@ -17218,7 +17206,7 @@
         <v>513</v>
       </c>
       <c r="E934" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -17235,7 +17223,7 @@
         <v>550</v>
       </c>
       <c r="E935" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -17252,7 +17240,7 @@
         <v>526</v>
       </c>
       <c r="E936" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="937" spans="1:5">
@@ -17288,7 +17276,7 @@
         <v>572</v>
       </c>
       <c r="E939" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="940" spans="1:5">
@@ -17313,7 +17301,7 @@
         <v>519</v>
       </c>
       <c r="E941" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="942" spans="1:5">
@@ -17358,7 +17346,7 @@
         <v>520</v>
       </c>
       <c r="E944" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -17391,7 +17379,7 @@
         <v>545</v>
       </c>
       <c r="E947" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -17425,7 +17413,7 @@
         <v>513</v>
       </c>
       <c r="E949" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -17550,7 +17538,7 @@
         <v>513</v>
       </c>
       <c r="E959" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="960" spans="1:5">
@@ -17707,7 +17695,7 @@
         <v>521</v>
       </c>
       <c r="E973" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -17724,7 +17712,7 @@
         <v>536</v>
       </c>
       <c r="E974" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="975" spans="1:5">
@@ -17758,7 +17746,7 @@
         <v>519</v>
       </c>
       <c r="E976" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="977" spans="1:5">
@@ -17775,7 +17763,7 @@
         <v>585</v>
       </c>
       <c r="E977" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -17792,7 +17780,7 @@
         <v>513</v>
       </c>
       <c r="E978" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -17809,7 +17797,7 @@
         <v>513</v>
       </c>
       <c r="E979" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="980" spans="1:5">
@@ -17865,7 +17853,7 @@
         <v>540</v>
       </c>
       <c r="E983" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="984" spans="1:5">
@@ -17924,7 +17912,7 @@
         <v>540</v>
       </c>
       <c r="E987" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="988" spans="1:5">
@@ -17955,7 +17943,7 @@
         <v>552</v>
       </c>
       <c r="E989" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -18022,7 +18010,7 @@
         <v>520</v>
       </c>
       <c r="E994" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="995" spans="1:5">
@@ -18078,7 +18066,7 @@
         <v>588</v>
       </c>
       <c r="E998" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -18095,7 +18083,7 @@
         <v>564</v>
       </c>
       <c r="E999" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -18340,7 +18328,7 @@
         <v>545</v>
       </c>
       <c r="E1024" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1025" spans="1:5">
@@ -18357,7 +18345,7 @@
         <v>531</v>
       </c>
       <c r="E1025" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
@@ -18430,7 +18418,7 @@
         <v>519</v>
       </c>
       <c r="E1030" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1031" spans="1:5">
@@ -18452,7 +18440,7 @@
         <v>256</v>
       </c>
       <c r="E1032" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1033" spans="1:5">
@@ -18480,7 +18468,7 @@
         <v>9</v>
       </c>
       <c r="E1034" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1035" spans="1:5">
@@ -18494,7 +18482,7 @@
         <v>103</v>
       </c>
       <c r="E1035" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1036" spans="1:5">
@@ -18508,7 +18496,7 @@
         <v>41</v>
       </c>
       <c r="E1036" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1037" spans="1:5">
@@ -18525,7 +18513,7 @@
         <v>519</v>
       </c>
       <c r="E1037" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1038" spans="1:5">
@@ -18542,7 +18530,7 @@
         <v>521</v>
       </c>
       <c r="E1038" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1039" spans="1:5">
@@ -18559,7 +18547,7 @@
         <v>584</v>
       </c>
       <c r="E1039" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1040" spans="1:5">
@@ -18576,7 +18564,7 @@
         <v>559</v>
       </c>
       <c r="E1040" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1041" spans="1:5">
@@ -18593,7 +18581,7 @@
         <v>590</v>
       </c>
       <c r="E1041" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1042" spans="1:5">
@@ -18610,7 +18598,7 @@
         <v>521</v>
       </c>
       <c r="E1042" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1043" spans="1:5">
@@ -18627,7 +18615,7 @@
         <v>545</v>
       </c>
       <c r="E1043" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1044" spans="1:5">
@@ -18734,7 +18722,7 @@
         <v>545</v>
       </c>
       <c r="E1053" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1054" spans="1:5">
@@ -18751,7 +18739,7 @@
         <v>526</v>
       </c>
       <c r="E1054" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1055" spans="1:5">
@@ -18790,7 +18778,7 @@
         <v>520</v>
       </c>
       <c r="E1057" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1058" spans="1:5">
@@ -18986,7 +18974,7 @@
         <v>572</v>
       </c>
       <c r="E1077" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1078" spans="1:5">
@@ -19157,7 +19145,7 @@
         <v>521</v>
       </c>
       <c r="E1089" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1090" spans="1:5">
@@ -19182,7 +19170,7 @@
         <v>565</v>
       </c>
       <c r="E1091" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1092" spans="1:5">
@@ -19235,7 +19223,7 @@
         <v>513</v>
       </c>
       <c r="E1095" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1096" spans="1:5">
@@ -19288,7 +19276,7 @@
         <v>529</v>
       </c>
       <c r="E1099" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -19380,7 +19368,7 @@
         <v>521</v>
       </c>
       <c r="E1106" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -19397,7 +19385,7 @@
         <v>564</v>
       </c>
       <c r="E1107" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
@@ -19456,7 +19444,7 @@
         <v>565</v>
       </c>
       <c r="E1111" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1112" spans="1:5">
@@ -19487,7 +19475,7 @@
         <v>513</v>
       </c>
       <c r="E1113" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1114" spans="1:5">
@@ -19504,7 +19492,7 @@
         <v>521</v>
       </c>
       <c r="E1114" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1115" spans="1:5">
@@ -19570,7 +19558,7 @@
         <v>513</v>
       </c>
       <c r="E1120" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
@@ -19587,7 +19575,7 @@
         <v>540</v>
       </c>
       <c r="E1121" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
@@ -19656,7 +19644,7 @@
         <v>535</v>
       </c>
       <c r="E1127" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
@@ -19709,7 +19697,7 @@
         <v>520</v>
       </c>
       <c r="E1131" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1132" spans="1:5">
@@ -19726,7 +19714,7 @@
         <v>524</v>
       </c>
       <c r="E1132" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -19751,7 +19739,7 @@
         <v>522</v>
       </c>
       <c r="E1134" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1135" spans="1:5">
@@ -19768,7 +19756,7 @@
         <v>513</v>
       </c>
       <c r="E1135" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1136" spans="1:5">
@@ -19799,7 +19787,7 @@
         <v>513</v>
       </c>
       <c r="E1137" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1138" spans="1:5">
@@ -19816,7 +19804,7 @@
         <v>513</v>
       </c>
       <c r="E1138" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1139" spans="1:5">
@@ -19833,7 +19821,7 @@
         <v>545</v>
       </c>
       <c r="E1139" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1140" spans="1:5">
@@ -19872,7 +19860,7 @@
         <v>513</v>
       </c>
       <c r="E1142" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1143" spans="1:5">
@@ -19886,7 +19874,7 @@
         <v>340</v>
       </c>
       <c r="E1143" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1144" spans="1:5">
@@ -19967,7 +19955,7 @@
         <v>545</v>
       </c>
       <c r="E1149" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1150" spans="1:5">
@@ -20001,7 +19989,7 @@
         <v>521</v>
       </c>
       <c r="E1151" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1152" spans="1:5">
@@ -20018,7 +20006,7 @@
         <v>521</v>
       </c>
       <c r="E1152" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1153" spans="1:5">
@@ -20077,7 +20065,7 @@
         <v>521</v>
       </c>
       <c r="E1156" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1157" spans="1:5">
@@ -20094,7 +20082,7 @@
         <v>521</v>
       </c>
       <c r="E1157" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1158" spans="1:5">
@@ -20174,7 +20162,7 @@
         <v>524</v>
       </c>
       <c r="E1164" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1165" spans="1:5">
@@ -20188,7 +20176,7 @@
         <v>20</v>
       </c>
       <c r="E1165" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1166" spans="1:5">
@@ -20202,7 +20190,7 @@
         <v>9</v>
       </c>
       <c r="E1166" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -20261,7 +20249,7 @@
         <v>540</v>
       </c>
       <c r="E1170" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1171" spans="1:5">
@@ -20351,7 +20339,7 @@
         <v>552</v>
       </c>
       <c r="E1179" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
@@ -20382,7 +20370,7 @@
         <v>521</v>
       </c>
       <c r="E1181" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1182" spans="1:5">
@@ -20399,7 +20387,7 @@
         <v>545</v>
       </c>
       <c r="E1182" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1183" spans="1:5">
@@ -20416,7 +20404,7 @@
         <v>564</v>
       </c>
       <c r="E1183" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
@@ -20447,7 +20435,7 @@
         <v>512</v>
       </c>
       <c r="E1185" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1186" spans="1:5">
@@ -20464,7 +20452,7 @@
         <v>545</v>
       </c>
       <c r="E1186" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
@@ -20618,7 +20606,7 @@
         <v>530</v>
       </c>
       <c r="E1197" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1198" spans="1:5">
@@ -20687,7 +20675,7 @@
         <v>568</v>
       </c>
       <c r="E1203" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1204" spans="1:5">
@@ -20732,7 +20720,7 @@
         <v>524</v>
       </c>
       <c r="E1206" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1207" spans="1:5">
@@ -20766,7 +20754,7 @@
         <v>583</v>
       </c>
       <c r="E1208" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1209" spans="1:5">
@@ -20867,7 +20855,7 @@
         <v>524</v>
       </c>
       <c r="E1215" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1216" spans="1:5">
@@ -20884,7 +20872,7 @@
         <v>524</v>
       </c>
       <c r="E1216" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1217" spans="1:5">
@@ -20998,7 +20986,7 @@
         <v>513</v>
       </c>
       <c r="E1225" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1226" spans="1:5">
@@ -21015,7 +21003,7 @@
         <v>526</v>
       </c>
       <c r="E1226" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1227" spans="1:5">
@@ -21101,7 +21089,7 @@
         <v>539</v>
       </c>
       <c r="E1233" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1234" spans="1:5">
@@ -21118,7 +21106,7 @@
         <v>546</v>
       </c>
       <c r="E1234" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1235" spans="1:5">
@@ -21135,7 +21123,7 @@
         <v>513</v>
       </c>
       <c r="E1235" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1236" spans="1:5">
@@ -21180,7 +21168,7 @@
         <v>586</v>
       </c>
       <c r="E1238" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1239" spans="1:5">
@@ -21239,7 +21227,7 @@
         <v>526</v>
       </c>
       <c r="E1242" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1243" spans="1:5">
@@ -21351,7 +21339,7 @@
         <v>526</v>
       </c>
       <c r="E1250" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1251" spans="1:5">
@@ -21412,7 +21400,7 @@
         <v>566</v>
       </c>
       <c r="E1255" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
@@ -21426,7 +21414,7 @@
         <v>361</v>
       </c>
       <c r="E1256" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
@@ -21509,7 +21497,7 @@
         <v>573</v>
       </c>
       <c r="E1263" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1264" spans="1:5">
@@ -21534,7 +21522,7 @@
         <v>529</v>
       </c>
       <c r="E1265" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -21551,7 +21539,7 @@
         <v>524</v>
       </c>
       <c r="E1266" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -21568,7 +21556,7 @@
         <v>519</v>
       </c>
       <c r="E1267" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1268" spans="1:5">
@@ -21599,7 +21587,7 @@
         <v>555</v>
       </c>
       <c r="E1269" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1270" spans="1:5">
@@ -21630,7 +21618,7 @@
         <v>513</v>
       </c>
       <c r="E1271" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1272" spans="1:5">
@@ -21661,7 +21649,7 @@
         <v>520</v>
       </c>
       <c r="E1273" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1274" spans="1:5">
@@ -21739,7 +21727,7 @@
         <v>525</v>
       </c>
       <c r="E1279" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1280" spans="1:5">
@@ -21756,7 +21744,7 @@
         <v>512</v>
       </c>
       <c r="E1280" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1281" spans="1:5">
@@ -21773,7 +21761,7 @@
         <v>540</v>
       </c>
       <c r="E1281" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1282" spans="1:5">
@@ -21790,7 +21778,7 @@
         <v>513</v>
       </c>
       <c r="E1282" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1283" spans="1:5">
@@ -21812,7 +21800,7 @@
         <v>368</v>
       </c>
       <c r="E1284" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1285" spans="1:5">
@@ -21840,7 +21828,7 @@
         <v>92</v>
       </c>
       <c r="E1286" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1287" spans="1:5">
@@ -21909,7 +21897,7 @@
         <v>513</v>
       </c>
       <c r="E1292" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1293" spans="1:5">
@@ -21957,7 +21945,7 @@
         <v>515</v>
       </c>
       <c r="E1295" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1296" spans="1:5">
@@ -21974,7 +21962,7 @@
         <v>512</v>
       </c>
       <c r="E1296" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1297" spans="1:5">
@@ -22024,7 +22012,7 @@
         <v>526</v>
       </c>
       <c r="E1300" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1301" spans="1:5">
@@ -22077,7 +22065,7 @@
         <v>513</v>
       </c>
       <c r="E1304" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1305" spans="1:5">
@@ -22139,7 +22127,7 @@
         <v>519</v>
       </c>
       <c r="E1308" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1309" spans="1:5">
@@ -22153,7 +22141,7 @@
         <v>35</v>
       </c>
       <c r="E1309" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1310" spans="1:5">
@@ -22198,7 +22186,7 @@
         <v>519</v>
       </c>
       <c r="E1312" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1313" spans="1:5">
@@ -22229,7 +22217,7 @@
         <v>521</v>
       </c>
       <c r="E1314" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1315" spans="1:5">
@@ -22415,7 +22403,7 @@
         <v>518</v>
       </c>
       <c r="E1329" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1330" spans="1:5">
@@ -22460,7 +22448,7 @@
         <v>531</v>
       </c>
       <c r="E1332" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1333" spans="1:5">
@@ -22496,7 +22484,7 @@
         <v>382</v>
       </c>
       <c r="E1335" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1336" spans="1:5">
@@ -22527,7 +22515,7 @@
         <v>524</v>
       </c>
       <c r="E1337" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1338" spans="1:5">
@@ -22544,7 +22532,7 @@
         <v>545</v>
       </c>
       <c r="E1338" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
@@ -22578,7 +22566,7 @@
         <v>513</v>
       </c>
       <c r="E1340" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -22634,7 +22622,7 @@
         <v>513</v>
       </c>
       <c r="E1344" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -22665,7 +22653,7 @@
         <v>519</v>
       </c>
       <c r="E1346" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1347" spans="1:5">
@@ -22682,7 +22670,7 @@
         <v>513</v>
       </c>
       <c r="E1347" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1348" spans="1:5">
@@ -22699,7 +22687,7 @@
         <v>513</v>
       </c>
       <c r="E1348" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1349" spans="1:5">
@@ -22716,7 +22704,7 @@
         <v>513</v>
       </c>
       <c r="E1349" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="1350" spans="1:5">
@@ -22733,7 +22721,7 @@
         <v>535</v>
       </c>
       <c r="E1350" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1351" spans="1:5">
@@ -22766,7 +22754,7 @@
         <v>513</v>
       </c>
       <c r="E1353" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1354" spans="1:5">
@@ -22853,7 +22841,7 @@
         <v>533</v>
       </c>
       <c r="E1359" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1360" spans="1:5">
@@ -22903,7 +22891,7 @@
         <v>514</v>
       </c>
       <c r="E1363" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1364" spans="1:5">
@@ -22920,7 +22908,7 @@
         <v>518</v>
       </c>
       <c r="E1364" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1365" spans="1:5">
@@ -22954,7 +22942,7 @@
         <v>526</v>
       </c>
       <c r="E1366" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1367" spans="1:5">
@@ -23049,7 +23037,7 @@
         <v>521</v>
       </c>
       <c r="E1373" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1374" spans="1:5">
@@ -23074,7 +23062,7 @@
         <v>530</v>
       </c>
       <c r="E1375" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1376" spans="1:5">
@@ -23091,7 +23079,7 @@
         <v>513</v>
       </c>
       <c r="E1376" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1377" spans="1:5">
@@ -23150,7 +23138,7 @@
         <v>513</v>
       </c>
       <c r="E1380" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1381" spans="1:5">
@@ -23203,7 +23191,7 @@
         <v>526</v>
       </c>
       <c r="E1384" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -23220,7 +23208,7 @@
         <v>513</v>
       </c>
       <c r="E1385" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -23276,7 +23264,7 @@
         <v>572</v>
       </c>
       <c r="E1389" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -23325,7 +23313,7 @@
         <v>526</v>
       </c>
       <c r="E1394" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -23453,7 +23441,7 @@
         <v>520</v>
       </c>
       <c r="E1404" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -23470,7 +23458,7 @@
         <v>513</v>
       </c>
       <c r="E1405" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -23487,7 +23475,7 @@
         <v>540</v>
       </c>
       <c r="E1406" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -23542,7 +23530,7 @@
         <v>530</v>
       </c>
       <c r="E1411" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1412" spans="1:5">
@@ -23595,7 +23583,7 @@
         <v>519</v>
       </c>
       <c r="E1415" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -23642,7 +23630,7 @@
         <v>576</v>
       </c>
       <c r="E1419" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -23703,7 +23691,7 @@
         <v>526</v>
       </c>
       <c r="E1424" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -23734,7 +23722,7 @@
         <v>520</v>
       </c>
       <c r="E1426" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1427" spans="1:5">
@@ -23765,7 +23753,7 @@
         <v>524</v>
       </c>
       <c r="E1428" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -23782,7 +23770,7 @@
         <v>513</v>
       </c>
       <c r="E1429" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -23865,7 +23853,7 @@
         <v>563</v>
       </c>
       <c r="E1436" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1437" spans="1:5">
@@ -23882,7 +23870,7 @@
         <v>519</v>
       </c>
       <c r="E1437" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -23916,7 +23904,7 @@
         <v>521</v>
       </c>
       <c r="E1439" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1440" spans="1:5">
@@ -23944,7 +23932,7 @@
         <v>35</v>
       </c>
       <c r="E1441" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1442" spans="1:5">
@@ -24003,7 +23991,7 @@
         <v>545</v>
       </c>
       <c r="E1445" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1446" spans="1:5">
@@ -24020,7 +24008,7 @@
         <v>517</v>
       </c>
       <c r="E1446" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1447" spans="1:5">
@@ -24067,7 +24055,7 @@
         <v>513</v>
       </c>
       <c r="E1450" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -24126,7 +24114,7 @@
         <v>519</v>
       </c>
       <c r="E1454" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -24162,7 +24150,7 @@
         <v>418</v>
       </c>
       <c r="E1457" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -24179,7 +24167,7 @@
         <v>545</v>
       </c>
       <c r="E1458" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -24237,7 +24225,7 @@
         <v>92</v>
       </c>
       <c r="E1463" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -24254,7 +24242,7 @@
         <v>532</v>
       </c>
       <c r="E1464" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -24271,7 +24259,7 @@
         <v>526</v>
       </c>
       <c r="E1465" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -24302,7 +24290,7 @@
         <v>564</v>
       </c>
       <c r="E1467" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -24319,7 +24307,7 @@
         <v>513</v>
       </c>
       <c r="E1468" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -24344,7 +24332,7 @@
         <v>532</v>
       </c>
       <c r="E1470" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -24375,7 +24363,7 @@
         <v>535</v>
       </c>
       <c r="E1472" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -24472,7 +24460,7 @@
         <v>535</v>
       </c>
       <c r="E1480" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1481" spans="1:5">
@@ -24520,7 +24508,7 @@
         <v>513</v>
       </c>
       <c r="E1483" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -24537,7 +24525,7 @@
         <v>513</v>
       </c>
       <c r="E1484" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -24585,7 +24573,7 @@
         <v>564</v>
       </c>
       <c r="E1487" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1488" spans="1:5">
@@ -24674,7 +24662,7 @@
         <v>535</v>
       </c>
       <c r="E1494" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1495" spans="1:5">
@@ -24788,7 +24776,7 @@
         <v>515</v>
       </c>
       <c r="E1503" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -24819,7 +24807,7 @@
         <v>513</v>
       </c>
       <c r="E1505" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1506" spans="1:5">
@@ -24872,7 +24860,7 @@
         <v>524</v>
       </c>
       <c r="E1509" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -24889,7 +24877,7 @@
         <v>599</v>
       </c>
       <c r="E1510" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -24906,7 +24894,7 @@
         <v>545</v>
       </c>
       <c r="E1511" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1512" spans="1:5">
@@ -24931,7 +24919,7 @@
         <v>545</v>
       </c>
       <c r="E1513" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -24948,7 +24936,7 @@
         <v>573</v>
       </c>
       <c r="E1514" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -24997,7 +24985,7 @@
         <v>572</v>
       </c>
       <c r="E1519" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -25014,7 +25002,7 @@
         <v>572</v>
       </c>
       <c r="E1520" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -25073,7 +25061,7 @@
         <v>525</v>
       </c>
       <c r="E1524" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -25104,7 +25092,7 @@
         <v>545</v>
       </c>
       <c r="E1526" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -25145,7 +25133,7 @@
         <v>535</v>
       </c>
       <c r="E1530" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -25176,7 +25164,7 @@
         <v>521</v>
       </c>
       <c r="E1532" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -25207,7 +25195,7 @@
         <v>521</v>
       </c>
       <c r="E1534" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -25224,7 +25212,7 @@
         <v>585</v>
       </c>
       <c r="E1535" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -25249,7 +25237,7 @@
         <v>519</v>
       </c>
       <c r="E1537" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1538" spans="1:5">
@@ -25280,7 +25268,7 @@
         <v>525</v>
       </c>
       <c r="E1539" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1540" spans="1:5">
@@ -25297,7 +25285,7 @@
         <v>524</v>
       </c>
       <c r="E1540" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -25314,7 +25302,7 @@
         <v>513</v>
       </c>
       <c r="E1541" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1542" spans="1:5">
@@ -25376,7 +25364,7 @@
         <v>533</v>
       </c>
       <c r="E1545" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -25429,7 +25417,7 @@
         <v>552</v>
       </c>
       <c r="E1549" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -25446,7 +25434,7 @@
         <v>526</v>
       </c>
       <c r="E1550" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -25474,7 +25462,7 @@
         <v>523</v>
       </c>
       <c r="E1552" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -25491,7 +25479,7 @@
         <v>526</v>
       </c>
       <c r="E1553" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -25508,7 +25496,7 @@
         <v>523</v>
       </c>
       <c r="E1554" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1555" spans="1:5">
@@ -25553,7 +25541,7 @@
         <v>526</v>
       </c>
       <c r="E1557" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1558" spans="1:5">
@@ -25641,7 +25629,7 @@
         <v>523</v>
       </c>
       <c r="E1565" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -25658,7 +25646,7 @@
         <v>526</v>
       </c>
       <c r="E1566" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1567" spans="1:5">
@@ -25834,7 +25822,7 @@
         <v>513</v>
       </c>
       <c r="E1579" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1580" spans="1:5">
@@ -25865,7 +25853,7 @@
         <v>559</v>
       </c>
       <c r="E1581" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1582" spans="1:5">
@@ -25882,7 +25870,7 @@
         <v>534</v>
       </c>
       <c r="E1582" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1583" spans="1:5">
@@ -25899,7 +25887,7 @@
         <v>513</v>
       </c>
       <c r="E1583" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -25916,7 +25904,7 @@
         <v>524</v>
       </c>
       <c r="E1584" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -25971,7 +25959,7 @@
         <v>513</v>
       </c>
       <c r="E1589" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -25988,7 +25976,7 @@
         <v>559</v>
       </c>
       <c r="E1590" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -26019,7 +26007,7 @@
         <v>513</v>
       </c>
       <c r="E1592" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1593" spans="1:5">
@@ -26036,7 +26024,7 @@
         <v>521</v>
       </c>
       <c r="E1593" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -26067,7 +26055,7 @@
         <v>520</v>
       </c>
       <c r="E1595" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1596" spans="1:5">
@@ -26084,7 +26072,7 @@
         <v>526</v>
       </c>
       <c r="E1596" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1597" spans="1:5">
@@ -26115,7 +26103,7 @@
         <v>519</v>
       </c>
       <c r="E1598" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -26132,7 +26120,7 @@
         <v>519</v>
       </c>
       <c r="E1599" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1600" spans="1:5">
@@ -26215,7 +26203,7 @@
         <v>513</v>
       </c>
       <c r="E1606" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1607" spans="1:5">
@@ -26248,7 +26236,7 @@
         <v>513</v>
       </c>
       <c r="E1609" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1610" spans="1:5">
@@ -26265,7 +26253,7 @@
         <v>524</v>
       </c>
       <c r="E1610" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1611" spans="1:5">
@@ -26350,7 +26338,7 @@
         <v>520</v>
       </c>
       <c r="E1618" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1619" spans="1:5">
@@ -26381,7 +26369,7 @@
         <v>513</v>
       </c>
       <c r="E1620" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="1621" spans="1:5">
@@ -26415,7 +26403,7 @@
         <v>526</v>
       </c>
       <c r="E1622" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1623" spans="1:5">
@@ -26432,7 +26420,7 @@
         <v>515</v>
       </c>
       <c r="E1623" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -26449,7 +26437,7 @@
         <v>527</v>
       </c>
       <c r="E1624" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -26466,7 +26454,7 @@
         <v>526</v>
       </c>
       <c r="E1625" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -26483,7 +26471,7 @@
         <v>513</v>
       </c>
       <c r="E1626" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -26500,7 +26488,7 @@
         <v>545</v>
       </c>
       <c r="E1627" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1628" spans="1:5">
@@ -26531,7 +26519,7 @@
         <v>524</v>
       </c>
       <c r="E1629" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -26570,7 +26558,7 @@
         <v>595</v>
       </c>
       <c r="E1632" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1633" spans="1:5">
@@ -26629,7 +26617,7 @@
         <v>515</v>
       </c>
       <c r="E1636" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -26720,7 +26708,7 @@
         <v>520</v>
       </c>
       <c r="E1644" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1645" spans="1:5">
@@ -26801,7 +26789,7 @@
         <v>535</v>
       </c>
       <c r="E1650" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1651" spans="1:5">
@@ -26840,7 +26828,7 @@
         <v>513</v>
       </c>
       <c r="E1653" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -26913,7 +26901,7 @@
         <v>562</v>
       </c>
       <c r="E1658" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -26944,7 +26932,7 @@
         <v>519</v>
       </c>
       <c r="E1660" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1661" spans="1:5">
@@ -26978,7 +26966,7 @@
         <v>521</v>
       </c>
       <c r="E1662" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1663" spans="1:5">
@@ -26995,7 +26983,7 @@
         <v>552</v>
       </c>
       <c r="E1663" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1664" spans="1:5">
@@ -27056,7 +27044,7 @@
         <v>513</v>
       </c>
       <c r="E1668" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1669" spans="1:5">
@@ -27106,7 +27094,7 @@
         <v>524</v>
       </c>
       <c r="E1672" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -27123,7 +27111,7 @@
         <v>524</v>
       </c>
       <c r="E1673" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -27140,7 +27128,7 @@
         <v>535</v>
       </c>
       <c r="E1674" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -27157,7 +27145,7 @@
         <v>513</v>
       </c>
       <c r="E1675" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1676" spans="1:5">
@@ -27191,7 +27179,7 @@
         <v>576</v>
       </c>
       <c r="E1677" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -27208,7 +27196,7 @@
         <v>512</v>
       </c>
       <c r="E1678" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -27225,7 +27213,7 @@
         <v>556</v>
       </c>
       <c r="E1679" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -27284,7 +27272,7 @@
         <v>514</v>
       </c>
       <c r="E1683" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -27312,7 +27300,7 @@
         <v>35</v>
       </c>
       <c r="E1685" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1686" spans="1:5">
@@ -27329,7 +27317,7 @@
         <v>518</v>
       </c>
       <c r="E1686" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -27385,7 +27373,7 @@
         <v>519</v>
       </c>
       <c r="E1690" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -27418,7 +27406,7 @@
         <v>520</v>
       </c>
       <c r="E1693" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -27435,7 +27423,7 @@
         <v>535</v>
       </c>
       <c r="E1694" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -27466,7 +27454,7 @@
         <v>513</v>
       </c>
       <c r="E1696" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1697" spans="1:5">
@@ -27500,7 +27488,7 @@
         <v>559</v>
       </c>
       <c r="E1698" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1699" spans="1:5">
@@ -27525,7 +27513,7 @@
         <v>524</v>
       </c>
       <c r="E1700" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1701" spans="1:5">
@@ -27583,7 +27571,7 @@
         <v>517</v>
       </c>
       <c r="E1705" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1706" spans="1:5">
@@ -27600,7 +27588,7 @@
         <v>526</v>
       </c>
       <c r="E1706" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -27628,7 +27616,7 @@
         <v>263</v>
       </c>
       <c r="E1708" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1709" spans="1:5">
@@ -27687,7 +27675,7 @@
         <v>535</v>
       </c>
       <c r="E1712" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1713" spans="1:5">
@@ -27723,7 +27711,7 @@
         <v>51</v>
       </c>
       <c r="E1715" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -27740,7 +27728,7 @@
         <v>513</v>
       </c>
       <c r="E1716" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -27796,7 +27784,7 @@
         <v>535</v>
       </c>
       <c r="E1720" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -27813,7 +27801,7 @@
         <v>513</v>
       </c>
       <c r="E1721" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1722" spans="1:5">
@@ -27858,7 +27846,7 @@
         <v>520</v>
       </c>
       <c r="E1724" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -27983,7 +27971,7 @@
         <v>520</v>
       </c>
       <c r="E1734" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -28000,7 +27988,7 @@
         <v>531</v>
       </c>
       <c r="E1735" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -28028,7 +28016,7 @@
         <v>479</v>
       </c>
       <c r="E1737" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1738" spans="1:5">
@@ -28059,7 +28047,7 @@
         <v>521</v>
       </c>
       <c r="E1739" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1740" spans="1:5">
@@ -28087,7 +28075,7 @@
         <v>580</v>
       </c>
       <c r="E1741" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -28134,7 +28122,7 @@
         <v>536</v>
       </c>
       <c r="E1745" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -28151,7 +28139,7 @@
         <v>525</v>
       </c>
       <c r="E1746" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -28176,7 +28164,7 @@
         <v>524</v>
       </c>
       <c r="E1748" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1749" spans="1:5">
@@ -28207,7 +28195,7 @@
         <v>529</v>
       </c>
       <c r="E1750" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1751" spans="1:5">
@@ -28254,7 +28242,7 @@
         <v>513</v>
       </c>
       <c r="E1754" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1755" spans="1:5">
@@ -28343,7 +28331,7 @@
         <v>519</v>
       </c>
       <c r="E1761" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1762" spans="1:5">
@@ -28360,7 +28348,7 @@
         <v>526</v>
       </c>
       <c r="E1762" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1763" spans="1:5">
@@ -28391,7 +28379,7 @@
         <v>535</v>
       </c>
       <c r="E1764" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1765" spans="1:5">
@@ -28419,7 +28407,7 @@
         <v>519</v>
       </c>
       <c r="E1766" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1767" spans="1:5">
@@ -28436,7 +28424,7 @@
         <v>513</v>
       </c>
       <c r="E1767" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1768" spans="1:5">
@@ -28453,7 +28441,7 @@
         <v>552</v>
       </c>
       <c r="E1768" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -28526,7 +28514,7 @@
         <v>519</v>
       </c>
       <c r="E1773" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1774" spans="1:5">
@@ -28543,7 +28531,7 @@
         <v>515</v>
       </c>
       <c r="E1774" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1775" spans="1:5">
@@ -28613,7 +28601,7 @@
         <v>518</v>
       </c>
       <c r="E1779" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -28630,7 +28618,7 @@
         <v>513</v>
       </c>
       <c r="E1780" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1781" spans="1:5">
@@ -28647,7 +28635,7 @@
         <v>521</v>
       </c>
       <c r="E1781" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1782" spans="1:5">
@@ -28664,7 +28652,7 @@
         <v>540</v>
       </c>
       <c r="E1782" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -28681,7 +28669,7 @@
         <v>549</v>
       </c>
       <c r="E1783" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1784" spans="1:5">
@@ -28726,7 +28714,7 @@
         <v>573</v>
       </c>
       <c r="E1786" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1787" spans="1:5">
@@ -28865,7 +28853,7 @@
         <v>545</v>
       </c>
       <c r="E1797" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -28882,7 +28870,7 @@
         <v>535</v>
       </c>
       <c r="E1798" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -28907,7 +28895,7 @@
         <v>521</v>
       </c>
       <c r="E1800" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -28954,7 +28942,7 @@
         <v>513</v>
       </c>
       <c r="E1804" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1805" spans="1:5">
@@ -28971,7 +28959,7 @@
         <v>525</v>
       </c>
       <c r="E1805" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1806" spans="1:5">
@@ -29046,7 +29034,7 @@
         <v>518</v>
       </c>
       <c r="E1811" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1812" spans="1:5">
@@ -29063,7 +29051,7 @@
         <v>516</v>
       </c>
       <c r="E1812" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -29127,7 +29115,7 @@
         <v>526</v>
       </c>
       <c r="E1817" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1818" spans="1:5">
@@ -29172,7 +29160,7 @@
         <v>525</v>
       </c>
       <c r="E1820" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1821" spans="1:5">
@@ -29189,7 +29177,7 @@
         <v>568</v>
       </c>
       <c r="E1821" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -29228,7 +29216,7 @@
         <v>513</v>
       </c>
       <c r="E1824" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -29245,7 +29233,7 @@
         <v>518</v>
       </c>
       <c r="E1825" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -29259,7 +29247,7 @@
         <v>194</v>
       </c>
       <c r="E1826" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -29290,7 +29278,7 @@
         <v>552</v>
       </c>
       <c r="E1828" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1829" spans="1:5">
@@ -29366,7 +29354,7 @@
         <v>533</v>
       </c>
       <c r="E1833" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1834" spans="1:5">
@@ -29383,7 +29371,7 @@
         <v>513</v>
       </c>
       <c r="E1834" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1835" spans="1:5">
@@ -29400,7 +29388,7 @@
         <v>513</v>
       </c>
       <c r="E1835" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1836" spans="1:5">
@@ -29417,7 +29405,7 @@
         <v>513</v>
       </c>
       <c r="E1836" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -29448,7 +29436,7 @@
         <v>515</v>
       </c>
       <c r="E1838" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -29515,7 +29503,7 @@
         <v>544</v>
       </c>
       <c r="E1843" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1844" spans="1:5">
@@ -29571,7 +29559,7 @@
         <v>521</v>
       </c>
       <c r="E1847" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1848" spans="1:5">
@@ -29624,7 +29612,7 @@
         <v>521</v>
       </c>
       <c r="E1851" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1852" spans="1:5">
@@ -29663,7 +29651,7 @@
         <v>552</v>
       </c>
       <c r="E1854" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -29716,7 +29704,7 @@
         <v>519</v>
       </c>
       <c r="E1858" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1859" spans="1:5">
@@ -29733,7 +29721,7 @@
         <v>531</v>
       </c>
       <c r="E1859" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1860" spans="1:5">
@@ -29755,7 +29743,7 @@
         <v>16</v>
       </c>
       <c r="E1861" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -29794,7 +29782,7 @@
         <v>513</v>
       </c>
       <c r="E1864" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1865" spans="1:5">

--- a/lease/data/house_box_NTC.xlsx
+++ b/lease/data/house_box_NTC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3612" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1220">
   <si>
     <t>post_id</t>
   </si>
@@ -316,126 +316,126 @@
     <t>押金：二個月,管理費：500元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
   </si>
   <si>
+    <t>押金：二個月,管理費：1000元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：1700元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：--,車 位：無,最短租期：一年,裝潢程度：高檔裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：--,車 位：無,最短租期：一年,裝潢程度：中檔裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：3516元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：未辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：5000元/月,車 位：平面式停車位，已含租金內,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：無,車 位：無,最短租期：3年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：900元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：--,車 位：平面式停車位，已含租金內,最短租期：一年,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：--,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：未辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：無,車 位：機械式停車位，已含租金內,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：3000元/月,車 位：無,最短租期：兩年,裝潢程度：高檔裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：250元/月,車 位：無,最短租期：一年,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：2000元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：一個月,管理費：--,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：未辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：無,車 位：無,最短租期：兩年,裝潢程度：中檔裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：1050元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：其他,管理費：--,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：--,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：110元/月,車 位：無,最短租期：5年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：1500元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：1100元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：3000元/月,車 位：平面式停車位，已含租金內,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：2931元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：無,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：1800元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：750,000,管理費：--,車 位：無,最短租期：3年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：4473元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：3300元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：6525元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：1800元/月,車 位：平面式停車位，已含租金內,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：1800元/月,車 位：平面式停車位，費用另計,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：--,車 位：無,最短租期：一年,裝潢程度：中檔裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：--,車 位：平面式停車位，已含租金內,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：500元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：600元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：7200元/月,車 位：機械式停車位，已含租金內,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：二個月,管理費：--,車 位：無,最短租期：2年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：面議,管理費：--,車 位：無,最短租期：兩年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
+  </si>
+  <si>
+    <t>押金：一個月,管理費：--,車 位：無,最短租期：一年,產權登記：未辦,</t>
+  </si>
+  <si>
     <t>押金：面議,管理費：--,車 位：無,最短租期：三個月,裝潢程度：簡易裝潢,產權登記：未辦,</t>
   </si>
   <si>
-    <t>押金：二個月,管理費：1000元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：1700元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：--,車 位：無,最短租期：一年,裝潢程度：高檔裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：--,車 位：無,最短租期：一年,裝潢程度：中檔裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：3516元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：未辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：5000元/月,車 位：平面式停車位，已含租金內,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：無,車 位：無,最短租期：3年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：900元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：--,車 位：平面式停車位，已含租金內,最短租期：一年,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：--,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：未辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：無,車 位：機械式停車位，已含租金內,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：3000元/月,車 位：無,最短租期：兩年,裝潢程度：高檔裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：250元/月,車 位：無,最短租期：一年,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：2000元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：一個月,管理費：--,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：未辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：無,車 位：無,最短租期：兩年,裝潢程度：中檔裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：1050元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：其他,管理費：--,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：--,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：110元/月,車 位：無,最短租期：5年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：1500元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：1100元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：3000元/月,車 位：平面式停車位，已含租金內,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：2931元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：無,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：1800元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：750,000,管理費：--,車 位：無,最短租期：3年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：4473元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：3300元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：6525元/月,車 位：無,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：1800元/月,車 位：平面式停車位，已含租金內,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：1800元/月,車 位：平面式停車位，費用另計,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：--,車 位：無,最短租期：一年,裝潢程度：中檔裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：--,車 位：平面式停車位，已含租金內,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：500元/月,車 位：無,最短租期：一年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：600元/月,車 位：無,最短租期：一年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：7200元/月,車 位：機械式停車位，已含租金內,最短租期：兩年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：二個月,管理費：--,車 位：無,最短租期：2年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：面議,管理費：--,車 位：無,最短租期：兩年,裝潢程度：尚未裝潢,產權登記：已辦,</t>
-  </si>
-  <si>
-    <t>押金：一個月,管理費：--,車 位：無,最短租期：一年,產權登記：未辦,</t>
-  </si>
-  <si>
     <t>押金：面議,管理費：4245元/月,車 位：平面式停車位，費用另計,最短租期：3年,裝潢程度：簡易裝潢,產權登記：已辦,</t>
   </si>
   <si>
@@ -1654,162 +1654,162 @@
     <t>近便利商店,公園綠地,學校</t>
   </si>
   <si>
+    <t>近便利商店,公園綠地,夜市</t>
+  </si>
+  <si>
+    <t>近學校</t>
+  </si>
+  <si>
+    <t>近傳統市場,學校,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,公園綠地,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,公園綠地,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,醫療機構,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,公園綠地,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,公園綠地,醫療機構,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,公園綠地,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近百貨公司,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近傳統市場,公園綠地,學校</t>
+  </si>
+  <si>
+    <t>近傳統市場,公園綠地,學校,夜市</t>
+  </si>
+  <si>
+    <t>近傳統市場</t>
+  </si>
+  <si>
+    <t>近夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,公園綠地,醫療機構,學校,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,公園綠地,學校,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,醫療機構,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,公園綠地,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,公園綠地,醫療機構,學校,夜市</t>
+  </si>
+  <si>
+    <t>近傳統市場,百貨公司,公園綠地,學校,夜市</t>
+  </si>
+  <si>
+    <t>近傳統市場,公園綠地,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,學校,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近公園綠地</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,公園綠地,學校,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,夜市</t>
+  </si>
+  <si>
+    <t>近公園綠地,學校,夜市</t>
+  </si>
+  <si>
+    <t>近傳統市場,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近公園綠地,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,公園綠地,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近學校,醫療機構</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,公園綠地,醫療機構</t>
+  </si>
+  <si>
+    <t>近傳統市場,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,公園綠地,醫療機構,學校</t>
+  </si>
+  <si>
     <t>近便利商店,傳統市場,百貨公司,學校,醫療機構,夜市</t>
   </si>
   <si>
-    <t>近便利商店,公園綠地,夜市</t>
-  </si>
-  <si>
-    <t>近學校</t>
-  </si>
-  <si>
-    <t>近傳統市場,學校,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,公園綠地,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,公園綠地,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,醫療機構,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,公園綠地,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近傳統市場</t>
-  </si>
-  <si>
-    <t>近傳統市場,公園綠地,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,公園綠地,醫療機構,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,公園綠地,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近百貨公司,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近傳統市場,公園綠地,學校,夜市</t>
-  </si>
-  <si>
-    <t>近夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,公園綠地,醫療機構,學校,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,公園綠地,學校,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,醫療機構,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,公園綠地,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,公園綠地,醫療機構,學校,夜市</t>
-  </si>
-  <si>
-    <t>近傳統市場,百貨公司,公園綠地,學校,夜市</t>
-  </si>
-  <si>
-    <t>近傳統市場,公園綠地,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,學校,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近公園綠地</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,公園綠地,學校,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,夜市</t>
-  </si>
-  <si>
-    <t>近公園綠地,學校,夜市</t>
-  </si>
-  <si>
-    <t>近傳統市場,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近公園綠地,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,公園綠地,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近學校,醫療機構</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,公園綠地,醫療機構</t>
-  </si>
-  <si>
-    <t>近傳統市場,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,公園綠地,醫療機構,學校</t>
-  </si>
-  <si>
     <t>近便利商店,百貨公司,公園綠地,學校,夜市</t>
   </si>
   <si>
+    <t>近便利商店,傳統市場,公園綠地,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,醫療機構,學校,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,公園綠地,醫療機構</t>
+  </si>
+  <si>
+    <t>近百貨公司,公園綠地,醫療機構,學校</t>
+  </si>
+  <si>
+    <t>近便利商店,百貨公司,學校,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,傳統市場,百貨公司,學校,夜市</t>
+  </si>
+  <si>
+    <t>近便利商店,醫療機構,夜市</t>
+  </si>
+  <si>
+    <t>近傳統市場,學校,醫療機構</t>
+  </si>
+  <si>
     <t>近便利商店,傳統市場,百貨公司,夜市</t>
   </si>
   <si>
-    <t>近便利商店,傳統市場,公園綠地,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,醫療機構,學校,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,公園綠地,醫療機構</t>
-  </si>
-  <si>
-    <t>近百貨公司,公園綠地,醫療機構,學校</t>
-  </si>
-  <si>
-    <t>近便利商店,百貨公司,學校,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,傳統市場,百貨公司,學校,夜市</t>
-  </si>
-  <si>
-    <t>近便利商店,醫療機構,夜市</t>
-  </si>
-  <si>
-    <t>近傳統市場,學校,醫療機構</t>
-  </si>
-  <si>
     <t>近百貨公司,公園綠地</t>
   </si>
   <si>
@@ -1993,9 +1993,6 @@
     <t>近三重國小捷運站</t>
   </si>
   <si>
-    <t>近南雅夜市公車站, 府中捷運站, 板橋火車站</t>
-  </si>
-  <si>
     <t>近頂溪公車站, 頂溪捷運站</t>
   </si>
   <si>
@@ -2125,12 +2122,6 @@
     <t>近大新里公車站, 樂華夜市公車站, 頂溪捷運站</t>
   </si>
   <si>
-    <t>近小白宮公車站, 淡水捷運站</t>
-  </si>
-  <si>
-    <t>近板橋區公所公車站, 板橋農會公車站, 府中捷運站, 板橋火車站</t>
-  </si>
-  <si>
     <t>近海山捷運站</t>
   </si>
   <si>
@@ -2534,9 +2525,6 @@
   </si>
   <si>
     <t>近汐止車站公車站, 汐止後車站公車站, 汐止火車站</t>
-  </si>
-  <si>
-    <t>近仁興街口公車站, 三重國小捷運站</t>
   </si>
   <si>
     <t>近盲人重建院公車站, 新莊捷運站, 輔大捷運站</t>
@@ -5558,15 +5546,6 @@
       <c r="B107">
         <v>7005131</v>
       </c>
-      <c r="C107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" t="s">
-        <v>546</v>
-      </c>
-      <c r="E107" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
@@ -5582,7 +5561,7 @@
         <v>526</v>
       </c>
       <c r="E108" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5596,7 +5575,7 @@
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5635,7 +5614,7 @@
         <v>526</v>
       </c>
       <c r="E112" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5649,7 +5628,7 @@
         <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5666,7 +5645,7 @@
         <v>521</v>
       </c>
       <c r="E114" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5694,10 +5673,10 @@
         <v>36</v>
       </c>
       <c r="D116" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E116" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5711,7 +5690,7 @@
         <v>63</v>
       </c>
       <c r="D117" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5725,7 +5704,7 @@
         <v>64</v>
       </c>
       <c r="E118" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5742,7 +5721,7 @@
         <v>531</v>
       </c>
       <c r="E119" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5759,7 +5738,7 @@
         <v>521</v>
       </c>
       <c r="E120" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5776,7 +5755,7 @@
         <v>534</v>
       </c>
       <c r="E121" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5798,10 +5777,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E123" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5857,7 +5836,7 @@
         <v>532</v>
       </c>
       <c r="E127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5871,7 +5850,7 @@
         <v>67</v>
       </c>
       <c r="E128" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5904,7 +5883,7 @@
         <v>513</v>
       </c>
       <c r="E131" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5929,7 +5908,7 @@
         <v>524</v>
       </c>
       <c r="E133" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5943,7 +5922,7 @@
         <v>70</v>
       </c>
       <c r="D134" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5960,7 +5939,7 @@
         <v>513</v>
       </c>
       <c r="E135" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5977,7 +5956,7 @@
         <v>526</v>
       </c>
       <c r="E136" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5994,7 +5973,7 @@
         <v>516</v>
       </c>
       <c r="E137" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6008,7 +5987,7 @@
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6039,7 +6018,7 @@
         <v>513</v>
       </c>
       <c r="E140" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6070,7 +6049,7 @@
         <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6084,7 +6063,7 @@
         <v>36</v>
       </c>
       <c r="E143" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6115,7 +6094,7 @@
         <v>513</v>
       </c>
       <c r="E145" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6157,7 +6136,7 @@
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6174,7 +6153,7 @@
         <v>512</v>
       </c>
       <c r="E149" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6191,7 +6170,7 @@
         <v>513</v>
       </c>
       <c r="E150" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6208,7 +6187,7 @@
         <v>520</v>
       </c>
       <c r="E151" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6239,7 +6218,7 @@
         <v>518</v>
       </c>
       <c r="E153" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6286,7 +6265,7 @@
         <v>535</v>
       </c>
       <c r="E157" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6303,7 +6282,7 @@
         <v>526</v>
       </c>
       <c r="E158" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6331,7 +6310,7 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6348,7 +6327,7 @@
         <v>513</v>
       </c>
       <c r="E161" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6362,7 +6341,7 @@
         <v>83</v>
       </c>
       <c r="D162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6379,7 +6358,7 @@
         <v>521</v>
       </c>
       <c r="E163" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6410,7 +6389,7 @@
         <v>513</v>
       </c>
       <c r="E165" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6472,7 +6451,7 @@
         <v>515</v>
       </c>
       <c r="E169" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6497,7 +6476,7 @@
         <v>513</v>
       </c>
       <c r="E171" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6514,7 +6493,7 @@
         <v>514</v>
       </c>
       <c r="E172" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6531,7 +6510,7 @@
         <v>520</v>
       </c>
       <c r="E173" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6545,10 +6524,10 @@
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E174" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6618,7 +6597,7 @@
         <v>540</v>
       </c>
       <c r="E179" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6635,7 +6614,7 @@
         <v>530</v>
       </c>
       <c r="E180" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6680,7 +6659,7 @@
         <v>526</v>
       </c>
       <c r="E183" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6697,7 +6676,7 @@
         <v>535</v>
       </c>
       <c r="E184" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6731,7 +6710,7 @@
         <v>513</v>
       </c>
       <c r="E186" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6748,7 +6727,7 @@
         <v>513</v>
       </c>
       <c r="E187" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6765,7 +6744,7 @@
         <v>513</v>
       </c>
       <c r="E188" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6793,10 +6772,10 @@
         <v>98</v>
       </c>
       <c r="D190" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6813,7 +6792,7 @@
         <v>522</v>
       </c>
       <c r="E191" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6823,12 +6802,6 @@
       <c r="B192">
         <v>6755751</v>
       </c>
-      <c r="C192" t="s">
-        <v>74</v>
-      </c>
-      <c r="D192" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1">
@@ -6837,15 +6810,6 @@
       <c r="B193">
         <v>6756010</v>
       </c>
-      <c r="C193" t="s">
-        <v>40</v>
-      </c>
-      <c r="D193" t="s">
-        <v>557</v>
-      </c>
-      <c r="E193" t="s">
-        <v>703</v>
-      </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1">
@@ -6854,15 +6818,6 @@
       <c r="B194">
         <v>6756378</v>
       </c>
-      <c r="C194" t="s">
-        <v>100</v>
-      </c>
-      <c r="D194" t="s">
-        <v>530</v>
-      </c>
-      <c r="E194" t="s">
-        <v>704</v>
-      </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1">
@@ -6878,7 +6833,7 @@
         <v>520</v>
       </c>
       <c r="E195" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6889,7 +6844,7 @@
         <v>6762947</v>
       </c>
       <c r="C196" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6903,7 +6858,7 @@
         <v>92</v>
       </c>
       <c r="E197" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6914,7 +6869,7 @@
         <v>6767113</v>
       </c>
       <c r="C198" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D198" t="s">
         <v>535</v>
@@ -6928,13 +6883,13 @@
         <v>6767398</v>
       </c>
       <c r="C199" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D199" t="s">
         <v>517</v>
       </c>
       <c r="E199" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6948,10 +6903,10 @@
         <v>34</v>
       </c>
       <c r="D200" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E200" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6962,7 +6917,7 @@
         <v>6768184</v>
       </c>
       <c r="C201" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D201" t="s">
         <v>525</v>
@@ -6982,7 +6937,7 @@
         <v>538</v>
       </c>
       <c r="E202" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7013,7 +6968,7 @@
         <v>537</v>
       </c>
       <c r="E204" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7030,7 +6985,7 @@
         <v>516</v>
       </c>
       <c r="E205" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7061,7 +7016,7 @@
         <v>513</v>
       </c>
       <c r="E207" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7075,10 +7030,10 @@
         <v>4</v>
       </c>
       <c r="D208" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E208" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7103,13 +7058,13 @@
         <v>6791225</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D210" t="s">
         <v>520</v>
       </c>
       <c r="E210" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7120,13 +7075,13 @@
         <v>6792410</v>
       </c>
       <c r="C211" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D211" t="s">
         <v>545</v>
       </c>
       <c r="E211" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7137,13 +7092,13 @@
         <v>6794034</v>
       </c>
       <c r="C212" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D212" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E212" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7196,7 +7151,7 @@
         <v>74</v>
       </c>
       <c r="D216" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7213,7 +7168,7 @@
         <v>545</v>
       </c>
       <c r="E217" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7224,13 +7179,13 @@
         <v>6809687</v>
       </c>
       <c r="C218" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D218" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E218" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7249,7 +7204,7 @@
         <v>6813407</v>
       </c>
       <c r="C220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D220" t="s">
         <v>521</v>
@@ -7263,7 +7218,7 @@
         <v>6815453</v>
       </c>
       <c r="C221" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E221" t="s">
         <v>627</v>
@@ -7285,13 +7240,13 @@
         <v>6817730</v>
       </c>
       <c r="C223" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D223" t="s">
         <v>520</v>
       </c>
       <c r="E223" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7302,7 +7257,7 @@
         <v>6817999</v>
       </c>
       <c r="C224" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D224" t="s">
         <v>513</v>
@@ -7322,7 +7277,7 @@
         <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7336,10 +7291,10 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E226" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7356,7 +7311,7 @@
         <v>513</v>
       </c>
       <c r="E227" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7367,7 +7322,7 @@
         <v>6826474</v>
       </c>
       <c r="C228" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D228" t="s">
         <v>521</v>
@@ -7384,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="E229" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7403,13 +7358,13 @@
         <v>6831281</v>
       </c>
       <c r="C231" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D231" t="s">
         <v>529</v>
       </c>
       <c r="E231" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7420,13 +7375,13 @@
         <v>6832963</v>
       </c>
       <c r="C232" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D232" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E232" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7443,7 +7398,7 @@
         <v>526</v>
       </c>
       <c r="E233" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7454,7 +7409,7 @@
         <v>6838036</v>
       </c>
       <c r="C234" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D234" t="s">
         <v>524</v>
@@ -7468,7 +7423,7 @@
         <v>6839353</v>
       </c>
       <c r="C235" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D235" t="s">
         <v>529</v>
@@ -7482,13 +7437,13 @@
         <v>6841527</v>
       </c>
       <c r="C236" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D236" t="s">
         <v>513</v>
       </c>
       <c r="E236" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7519,7 +7474,7 @@
         <v>36</v>
       </c>
       <c r="D238" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E238" t="s">
         <v>627</v>
@@ -7536,10 +7491,10 @@
         <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E239" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7584,7 +7539,7 @@
         <v>513</v>
       </c>
       <c r="E242" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7598,10 +7553,10 @@
         <v>74</v>
       </c>
       <c r="D243" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E243" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7612,13 +7567,13 @@
         <v>6850248</v>
       </c>
       <c r="C244" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D244" t="s">
         <v>515</v>
       </c>
       <c r="E244" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7646,10 +7601,10 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E246" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7660,7 +7615,7 @@
         <v>6851623</v>
       </c>
       <c r="C247" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D247" t="s">
         <v>512</v>
@@ -7693,13 +7648,13 @@
         <v>6853838</v>
       </c>
       <c r="C250" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D250" t="s">
         <v>520</v>
       </c>
       <c r="E250" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7710,13 +7665,13 @@
         <v>6853876</v>
       </c>
       <c r="C251" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D251" t="s">
         <v>529</v>
       </c>
       <c r="E251" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7752,7 +7707,7 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7771,10 +7726,10 @@
         <v>6858911</v>
       </c>
       <c r="C256" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D256" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7805,7 +7760,7 @@
         <v>526</v>
       </c>
       <c r="E258" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7822,7 +7777,7 @@
         <v>513</v>
       </c>
       <c r="E259" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7844,10 +7799,10 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E261" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7864,7 +7819,7 @@
         <v>519</v>
       </c>
       <c r="E262" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7878,7 +7833,7 @@
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7923,10 +7878,10 @@
         <v>6875170</v>
       </c>
       <c r="C266" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D266" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7945,7 +7900,7 @@
         <v>6878506</v>
       </c>
       <c r="C268" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D268" t="s">
         <v>521</v>
@@ -7965,7 +7920,7 @@
         <v>516</v>
       </c>
       <c r="E269" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7976,7 +7931,7 @@
         <v>6880941</v>
       </c>
       <c r="C270" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D270" t="s">
         <v>513</v>
@@ -8021,7 +7976,7 @@
         <v>6882290</v>
       </c>
       <c r="C273" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D273" t="s">
         <v>521</v>
@@ -8038,7 +7993,7 @@
         <v>9</v>
       </c>
       <c r="D274" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E274" t="s">
         <v>625</v>
@@ -8052,7 +8007,7 @@
         <v>6884661</v>
       </c>
       <c r="C275" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D275" t="s">
         <v>515</v>
@@ -8069,7 +8024,7 @@
         <v>6885242</v>
       </c>
       <c r="C276" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D276" t="s">
         <v>521</v>
@@ -8086,7 +8041,7 @@
         <v>33</v>
       </c>
       <c r="E277" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8103,7 +8058,7 @@
         <v>513</v>
       </c>
       <c r="E278" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8117,7 +8072,7 @@
         <v>18</v>
       </c>
       <c r="D279" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8142,7 +8097,7 @@
         <v>6893935</v>
       </c>
       <c r="C281" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D281" t="s">
         <v>531</v>
@@ -8156,10 +8111,10 @@
         <v>6896698</v>
       </c>
       <c r="C282" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D282" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8176,7 +8131,7 @@
         <v>519</v>
       </c>
       <c r="E283" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8195,13 +8150,13 @@
         <v>6900452</v>
       </c>
       <c r="C285" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D285" t="s">
         <v>513</v>
       </c>
       <c r="E285" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8212,13 +8167,13 @@
         <v>6900636</v>
       </c>
       <c r="C286" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D286" t="s">
         <v>520</v>
       </c>
       <c r="E286" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8237,13 +8192,13 @@
         <v>6902852</v>
       </c>
       <c r="C288" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D288" t="s">
         <v>519</v>
       </c>
       <c r="E288" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8254,13 +8209,13 @@
         <v>6903063</v>
       </c>
       <c r="C289" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D289" t="s">
         <v>520</v>
       </c>
       <c r="E289" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8274,10 +8229,10 @@
         <v>9</v>
       </c>
       <c r="D290" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E290" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8288,13 +8243,13 @@
         <v>6905210</v>
       </c>
       <c r="C291" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D291" t="s">
         <v>545</v>
       </c>
       <c r="E291" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8308,7 +8263,7 @@
         <v>20</v>
       </c>
       <c r="D292" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8330,7 +8285,7 @@
         <v>4</v>
       </c>
       <c r="E294" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8341,13 +8296,13 @@
         <v>6912163</v>
       </c>
       <c r="C295" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D295" t="s">
         <v>513</v>
       </c>
       <c r="E295" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8361,7 +8316,7 @@
         <v>14</v>
       </c>
       <c r="E296" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8394,10 +8349,10 @@
         <v>6919398</v>
       </c>
       <c r="C299" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D299" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8408,13 +8363,13 @@
         <v>6922122</v>
       </c>
       <c r="C300" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D300" t="s">
         <v>533</v>
       </c>
       <c r="E300" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8425,13 +8380,13 @@
         <v>6922300</v>
       </c>
       <c r="C301" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D301" t="s">
         <v>516</v>
       </c>
       <c r="E301" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8466,10 +8421,10 @@
         <v>6925548</v>
       </c>
       <c r="C305" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D305" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8480,10 +8435,10 @@
         <v>6926035</v>
       </c>
       <c r="C306" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D306" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8508,13 +8463,13 @@
         <v>6927266</v>
       </c>
       <c r="C308" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D308" t="s">
         <v>513</v>
       </c>
       <c r="E308" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8531,7 +8486,7 @@
         <v>526</v>
       </c>
       <c r="E309" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8548,7 +8503,7 @@
         <v>512</v>
       </c>
       <c r="E310" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8579,7 +8534,7 @@
         <v>513</v>
       </c>
       <c r="E312" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8604,10 +8559,10 @@
         <v>6932944</v>
       </c>
       <c r="C314" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D314" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E314" t="s">
         <v>625</v>
@@ -8627,7 +8582,7 @@
         <v>526</v>
       </c>
       <c r="E315" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8661,7 +8616,7 @@
         <v>520</v>
       </c>
       <c r="E317" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8678,7 +8633,7 @@
         <v>529</v>
       </c>
       <c r="E318" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8712,7 +8667,7 @@
         <v>513</v>
       </c>
       <c r="E320" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8729,7 +8684,7 @@
         <v>545</v>
       </c>
       <c r="E321" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8746,7 +8701,7 @@
         <v>529</v>
       </c>
       <c r="E322" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8760,7 +8715,7 @@
         <v>35</v>
       </c>
       <c r="D323" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8791,10 +8746,10 @@
         <v>35</v>
       </c>
       <c r="D325" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E325" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8808,10 +8763,10 @@
         <v>40</v>
       </c>
       <c r="D326" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E326" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8887,7 +8842,7 @@
         <v>513</v>
       </c>
       <c r="E331" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8926,7 +8881,7 @@
         <v>6958177</v>
       </c>
       <c r="C334" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D334" t="s">
         <v>521</v>
@@ -8946,7 +8901,7 @@
         <v>526</v>
       </c>
       <c r="E335" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8974,7 +8929,7 @@
         <v>148</v>
       </c>
       <c r="D337" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9005,7 +8960,7 @@
         <v>535</v>
       </c>
       <c r="E339" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9022,7 +8977,7 @@
         <v>521</v>
       </c>
       <c r="E340" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9047,7 +9002,7 @@
         <v>521</v>
       </c>
       <c r="E342" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9172,13 +9127,13 @@
         <v>6985623</v>
       </c>
       <c r="C352" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D352" t="s">
         <v>513</v>
       </c>
       <c r="E352" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9195,7 +9150,7 @@
         <v>513</v>
       </c>
       <c r="E353" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9209,7 +9164,7 @@
         <v>151</v>
       </c>
       <c r="D354" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9223,10 +9178,10 @@
         <v>152</v>
       </c>
       <c r="D355" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E355" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9237,7 +9192,7 @@
         <v>6989721</v>
       </c>
       <c r="C356" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D356" t="s">
         <v>522</v>
@@ -9257,7 +9212,7 @@
         <v>513</v>
       </c>
       <c r="E357" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9274,7 +9229,7 @@
         <v>521</v>
       </c>
       <c r="E358" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9291,7 +9246,7 @@
         <v>515</v>
       </c>
       <c r="E359" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9302,7 +9257,7 @@
         <v>6992814</v>
       </c>
       <c r="C360" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D360" t="s">
         <v>543</v>
@@ -9347,7 +9302,7 @@
         <v>155</v>
       </c>
       <c r="D363" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9392,7 +9347,7 @@
         <v>521</v>
       </c>
       <c r="E366" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9423,7 +9378,7 @@
         <v>526</v>
       </c>
       <c r="E368" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9434,13 +9389,13 @@
         <v>7003601</v>
       </c>
       <c r="C369" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D369" t="s">
         <v>516</v>
       </c>
       <c r="E369" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9468,10 +9423,10 @@
         <v>159</v>
       </c>
       <c r="D371" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E371" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9510,7 +9465,7 @@
         <v>535</v>
       </c>
       <c r="E374" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9521,13 +9476,13 @@
         <v>7010050</v>
       </c>
       <c r="C375" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D375" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E375" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9544,7 +9499,7 @@
         <v>540</v>
       </c>
       <c r="E376" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9555,13 +9510,13 @@
         <v>7011441</v>
       </c>
       <c r="C377" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D377" t="s">
         <v>531</v>
       </c>
       <c r="E377" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9572,13 +9527,13 @@
         <v>7013766</v>
       </c>
       <c r="C378" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D378" t="s">
         <v>531</v>
       </c>
       <c r="E378" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9614,7 +9569,7 @@
         <v>161</v>
       </c>
       <c r="E381" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9631,7 +9586,7 @@
         <v>516</v>
       </c>
       <c r="E382" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9662,7 +9617,7 @@
         <v>545</v>
       </c>
       <c r="E384" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9679,7 +9634,7 @@
         <v>518</v>
       </c>
       <c r="E385" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9693,10 +9648,10 @@
         <v>164</v>
       </c>
       <c r="D386" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E386" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9713,7 +9668,7 @@
         <v>515</v>
       </c>
       <c r="E387" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9724,13 +9679,13 @@
         <v>7024281</v>
       </c>
       <c r="C388" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D388" t="s">
         <v>520</v>
       </c>
       <c r="E388" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9747,7 +9702,7 @@
         <v>515</v>
       </c>
       <c r="E389" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9797,10 +9752,10 @@
         <v>40</v>
       </c>
       <c r="D393" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E393" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9845,7 +9800,7 @@
         <v>520</v>
       </c>
       <c r="E396" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9898,7 +9853,7 @@
         <v>519</v>
       </c>
       <c r="E400" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9912,7 +9867,7 @@
         <v>36</v>
       </c>
       <c r="E401" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9926,7 +9881,7 @@
         <v>170</v>
       </c>
       <c r="E402" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9940,7 +9895,7 @@
         <v>24</v>
       </c>
       <c r="D403" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9954,10 +9909,10 @@
         <v>92</v>
       </c>
       <c r="D404" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E404" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9974,7 +9929,7 @@
         <v>520</v>
       </c>
       <c r="E405" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9991,7 +9946,7 @@
         <v>519</v>
       </c>
       <c r="E406" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10008,7 +9963,7 @@
         <v>520</v>
       </c>
       <c r="E407" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10030,10 +9985,10 @@
         <v>40</v>
       </c>
       <c r="D409" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E409" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10064,7 +10019,7 @@
         <v>512</v>
       </c>
       <c r="E411" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10112,7 +10067,7 @@
         <v>513</v>
       </c>
       <c r="E414" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10129,7 +10084,7 @@
         <v>521</v>
       </c>
       <c r="E415" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10146,7 +10101,7 @@
         <v>515</v>
       </c>
       <c r="E416" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10163,7 +10118,7 @@
         <v>516</v>
       </c>
       <c r="E417" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10194,7 +10149,7 @@
         <v>525</v>
       </c>
       <c r="E419" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10208,10 +10163,10 @@
         <v>40</v>
       </c>
       <c r="D420" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E420" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10228,7 +10183,7 @@
         <v>535</v>
       </c>
       <c r="E421" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10290,7 +10245,7 @@
         <v>513</v>
       </c>
       <c r="E425" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10307,7 +10262,7 @@
         <v>513</v>
       </c>
       <c r="E426" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10325,12 +10280,6 @@
       <c r="B428">
         <v>7072584</v>
       </c>
-      <c r="C428" t="s">
-        <v>20</v>
-      </c>
-      <c r="D428" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="1">
@@ -10343,10 +10292,10 @@
         <v>177</v>
       </c>
       <c r="D429" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E429" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10394,7 +10343,7 @@
         <v>513</v>
       </c>
       <c r="E432" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10405,7 +10354,7 @@
         <v>6961348</v>
       </c>
       <c r="C433" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D433" t="s">
         <v>545</v>
@@ -10436,7 +10385,7 @@
         <v>180</v>
       </c>
       <c r="D435" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10467,7 +10416,7 @@
         <v>513</v>
       </c>
       <c r="E437" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10481,7 +10430,7 @@
         <v>182</v>
       </c>
       <c r="D438" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E438" t="s">
         <v>625</v>
@@ -10501,7 +10450,7 @@
         <v>519</v>
       </c>
       <c r="E439" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10523,10 +10472,10 @@
         <v>4</v>
       </c>
       <c r="D441" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E441" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10551,7 +10500,7 @@
         <v>531</v>
       </c>
       <c r="E443" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10568,7 +10517,7 @@
         <v>526</v>
       </c>
       <c r="E444" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10582,7 +10531,7 @@
         <v>23</v>
       </c>
       <c r="D445" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10599,7 +10548,7 @@
         <v>513</v>
       </c>
       <c r="E446" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10627,7 +10576,7 @@
         <v>36</v>
       </c>
       <c r="D448" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10655,7 +10604,7 @@
         <v>9</v>
       </c>
       <c r="D450" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10672,7 +10621,7 @@
         <v>529</v>
       </c>
       <c r="E451" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10689,7 +10638,7 @@
         <v>513</v>
       </c>
       <c r="E452" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10703,10 +10652,10 @@
         <v>4</v>
       </c>
       <c r="D453" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E453" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10736,10 +10685,10 @@
         <v>16</v>
       </c>
       <c r="D456" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E456" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10770,10 +10719,10 @@
         <v>40</v>
       </c>
       <c r="D458" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E458" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10787,10 +10736,10 @@
         <v>187</v>
       </c>
       <c r="D459" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E459" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10840,13 +10789,13 @@
         <v>7073518</v>
       </c>
       <c r="C463" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D463" t="s">
         <v>526</v>
       </c>
       <c r="E463" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10863,7 +10812,7 @@
         <v>541</v>
       </c>
       <c r="E464" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10930,7 +10879,7 @@
         <v>521</v>
       </c>
       <c r="E469" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -10944,7 +10893,7 @@
         <v>16</v>
       </c>
       <c r="D470" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -10961,7 +10910,7 @@
         <v>513</v>
       </c>
       <c r="E471" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11009,7 +10958,7 @@
         <v>513</v>
       </c>
       <c r="E474" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11051,7 +11000,7 @@
         <v>513</v>
       </c>
       <c r="E477" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11082,7 +11031,7 @@
         <v>513</v>
       </c>
       <c r="E479" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11121,7 +11070,7 @@
         <v>521</v>
       </c>
       <c r="E482" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11160,7 +11109,7 @@
         <v>517</v>
       </c>
       <c r="E485" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11177,7 +11126,7 @@
         <v>521</v>
       </c>
       <c r="E486" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11194,7 +11143,7 @@
         <v>545</v>
       </c>
       <c r="E487" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11239,7 +11188,7 @@
         <v>513</v>
       </c>
       <c r="E490" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11289,7 +11238,7 @@
         <v>197</v>
       </c>
       <c r="D494" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11328,10 +11277,10 @@
         <v>4</v>
       </c>
       <c r="D497" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E497" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11359,10 +11308,10 @@
         <v>9</v>
       </c>
       <c r="D499" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E499" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11393,7 +11342,7 @@
         <v>526</v>
       </c>
       <c r="E501" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11510,7 +11459,7 @@
         <v>16</v>
       </c>
       <c r="E510" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11527,7 +11476,7 @@
         <v>518</v>
       </c>
       <c r="E511" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11552,7 +11501,7 @@
         <v>545</v>
       </c>
       <c r="E513" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11569,7 +11518,7 @@
         <v>540</v>
       </c>
       <c r="E514" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11583,7 +11532,7 @@
         <v>205</v>
       </c>
       <c r="D515" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11611,7 +11560,7 @@
         <v>206</v>
       </c>
       <c r="D517" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11639,7 +11588,7 @@
         <v>15</v>
       </c>
       <c r="D519" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11653,10 +11602,10 @@
         <v>208</v>
       </c>
       <c r="D520" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E520" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11670,7 +11619,7 @@
         <v>34</v>
       </c>
       <c r="E521" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11715,7 +11664,7 @@
         <v>521</v>
       </c>
       <c r="E524" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11732,7 +11681,7 @@
         <v>522</v>
       </c>
       <c r="E525" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11749,7 +11698,7 @@
         <v>522</v>
       </c>
       <c r="E526" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11763,7 +11712,7 @@
         <v>38</v>
       </c>
       <c r="D527" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11780,7 +11729,7 @@
         <v>520</v>
       </c>
       <c r="E528" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11822,7 +11771,7 @@
         <v>93</v>
       </c>
       <c r="E531" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -11839,7 +11788,7 @@
         <v>544</v>
       </c>
       <c r="E532" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -11856,7 +11805,7 @@
         <v>513</v>
       </c>
       <c r="E533" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11887,7 +11836,7 @@
         <v>513</v>
       </c>
       <c r="E535" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -11904,7 +11853,7 @@
         <v>513</v>
       </c>
       <c r="E536" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -11921,7 +11870,7 @@
         <v>526</v>
       </c>
       <c r="E537" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -11935,7 +11884,7 @@
         <v>215</v>
       </c>
       <c r="E538" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -11968,7 +11917,7 @@
         <v>6989988</v>
       </c>
       <c r="C541" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D541" t="s">
         <v>520</v>
@@ -12010,7 +11959,7 @@
         <v>517</v>
       </c>
       <c r="E544" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12028,15 +11977,6 @@
       <c r="B546">
         <v>7059073</v>
       </c>
-      <c r="C546" t="s">
-        <v>35</v>
-      </c>
-      <c r="D546" t="s">
-        <v>526</v>
-      </c>
-      <c r="E546" t="s">
-        <v>840</v>
-      </c>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="1">
@@ -12049,7 +11989,7 @@
         <v>218</v>
       </c>
       <c r="D547" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12063,7 +12003,7 @@
         <v>9</v>
       </c>
       <c r="D548" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12077,10 +12017,10 @@
         <v>194</v>
       </c>
       <c r="D549" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E549" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12097,7 +12037,7 @@
         <v>523</v>
       </c>
       <c r="E550" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12164,7 +12104,7 @@
         <v>526</v>
       </c>
       <c r="E555" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12212,7 +12152,7 @@
         <v>513</v>
       </c>
       <c r="E558" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12243,7 +12183,7 @@
         <v>513</v>
       </c>
       <c r="E560" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12260,7 +12200,7 @@
         <v>535</v>
       </c>
       <c r="E561" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12285,7 +12225,7 @@
         <v>513</v>
       </c>
       <c r="E563" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12341,7 +12281,7 @@
         <v>221</v>
       </c>
       <c r="E567" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12352,7 +12292,7 @@
         <v>6927877</v>
       </c>
       <c r="C568" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D568" t="s">
         <v>513</v>
@@ -12377,7 +12317,7 @@
         <v>9</v>
       </c>
       <c r="D570" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12454,7 +12394,7 @@
         <v>526</v>
       </c>
       <c r="E577" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12471,7 +12411,7 @@
         <v>526</v>
       </c>
       <c r="E578" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -12488,7 +12428,7 @@
         <v>541</v>
       </c>
       <c r="E579" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -12636,7 +12576,7 @@
         <v>40</v>
       </c>
       <c r="E593" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -12650,7 +12590,7 @@
         <v>223</v>
       </c>
       <c r="D594" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -12752,7 +12692,7 @@
         <v>513</v>
       </c>
       <c r="E603" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -12800,7 +12740,7 @@
         <v>513</v>
       </c>
       <c r="E606" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -12814,10 +12754,10 @@
         <v>9</v>
       </c>
       <c r="D607" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E607" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -12834,7 +12774,7 @@
         <v>526</v>
       </c>
       <c r="E608" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -12848,10 +12788,10 @@
         <v>93</v>
       </c>
       <c r="D609" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E609" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -12882,7 +12822,7 @@
         <v>513</v>
       </c>
       <c r="E611" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -12913,7 +12853,7 @@
         <v>524</v>
       </c>
       <c r="E613" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -12930,7 +12870,7 @@
         <v>524</v>
       </c>
       <c r="E614" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -12972,10 +12912,10 @@
         <v>20</v>
       </c>
       <c r="D617" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E617" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13003,10 +12943,10 @@
         <v>36</v>
       </c>
       <c r="D619" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E619" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13020,7 +12960,7 @@
         <v>4</v>
       </c>
       <c r="E620" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13034,10 +12974,10 @@
         <v>38</v>
       </c>
       <c r="D621" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E621" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -13054,7 +12994,7 @@
         <v>540</v>
       </c>
       <c r="E622" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -13082,10 +13022,10 @@
         <v>228</v>
       </c>
       <c r="D624" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E624" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -13099,10 +13039,10 @@
         <v>38</v>
       </c>
       <c r="D625" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E625" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13124,10 +13064,10 @@
         <v>36</v>
       </c>
       <c r="D627" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E627" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13144,7 +13084,7 @@
         <v>540</v>
       </c>
       <c r="E628" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13166,10 +13106,10 @@
         <v>229</v>
       </c>
       <c r="D630" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E630" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13200,7 +13140,7 @@
         <v>519</v>
       </c>
       <c r="E632" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -13245,7 +13185,7 @@
         <v>531</v>
       </c>
       <c r="E635" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13276,7 +13216,7 @@
         <v>513</v>
       </c>
       <c r="E637" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13307,7 +13247,7 @@
         <v>234</v>
       </c>
       <c r="D639" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -13318,10 +13258,10 @@
         <v>6947184</v>
       </c>
       <c r="C640" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D640" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13357,7 +13297,7 @@
         <v>14</v>
       </c>
       <c r="E643" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -13410,7 +13350,7 @@
         <v>524</v>
       </c>
       <c r="E647" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -13427,7 +13367,7 @@
         <v>521</v>
       </c>
       <c r="E648" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -13441,7 +13381,7 @@
         <v>35</v>
       </c>
       <c r="D649" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -13452,10 +13392,10 @@
         <v>6770408</v>
       </c>
       <c r="C650" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D650" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -13486,7 +13426,7 @@
         <v>540</v>
       </c>
       <c r="E652" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -13503,7 +13443,7 @@
         <v>532</v>
       </c>
       <c r="E653" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -13564,7 +13504,7 @@
         <v>513</v>
       </c>
       <c r="E658" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -13581,7 +13521,7 @@
         <v>513</v>
       </c>
       <c r="E659" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -13603,10 +13543,10 @@
         <v>9</v>
       </c>
       <c r="D661" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E661" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -13623,7 +13563,7 @@
         <v>519</v>
       </c>
       <c r="E662" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -13665,7 +13605,7 @@
         <v>512</v>
       </c>
       <c r="E665" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -13746,7 +13686,7 @@
         <v>517</v>
       </c>
       <c r="E671" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -13763,7 +13703,7 @@
         <v>513</v>
       </c>
       <c r="E672" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -13780,7 +13720,7 @@
         <v>513</v>
       </c>
       <c r="E673" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -13813,7 +13753,7 @@
         <v>513</v>
       </c>
       <c r="E676" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14036,7 +13976,7 @@
         <v>524</v>
       </c>
       <c r="E702" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -14078,10 +14018,10 @@
         <v>79</v>
       </c>
       <c r="D705" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E705" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -14095,10 +14035,10 @@
         <v>4</v>
       </c>
       <c r="D706" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E706" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -14123,7 +14063,7 @@
         <v>513</v>
       </c>
       <c r="E708" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -14140,7 +14080,7 @@
         <v>538</v>
       </c>
       <c r="E709" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -14157,7 +14097,7 @@
         <v>540</v>
       </c>
       <c r="E710" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -14193,10 +14133,10 @@
         <v>9</v>
       </c>
       <c r="D713" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E713" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -14241,7 +14181,7 @@
         <v>513</v>
       </c>
       <c r="E716" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -14265,12 +14205,6 @@
       <c r="B718">
         <v>6755264</v>
       </c>
-      <c r="C718" t="s">
-        <v>16</v>
-      </c>
-      <c r="D718" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="719" spans="1:5">
       <c r="A719" s="1">
@@ -14283,7 +14217,7 @@
         <v>35</v>
       </c>
       <c r="E719" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -14410,10 +14344,10 @@
         <v>194</v>
       </c>
       <c r="D730" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E730" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -14438,10 +14372,10 @@
         <v>7000946</v>
       </c>
       <c r="C732" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D732" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -14455,7 +14389,7 @@
         <v>35</v>
       </c>
       <c r="D733" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -14525,7 +14459,7 @@
         <v>9</v>
       </c>
       <c r="D738" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -14542,7 +14476,7 @@
         <v>545</v>
       </c>
       <c r="E739" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -14556,10 +14490,10 @@
         <v>9</v>
       </c>
       <c r="D740" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E740" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -14595,7 +14529,7 @@
         <v>35</v>
       </c>
       <c r="E743" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -14612,7 +14546,7 @@
         <v>513</v>
       </c>
       <c r="E744" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -14626,10 +14560,10 @@
         <v>31</v>
       </c>
       <c r="D745" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E745" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -14646,7 +14580,7 @@
         <v>513</v>
       </c>
       <c r="E746" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -14663,7 +14597,7 @@
         <v>513</v>
       </c>
       <c r="E747" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -14694,7 +14628,7 @@
         <v>513</v>
       </c>
       <c r="E749" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -14711,7 +14645,7 @@
         <v>535</v>
       </c>
       <c r="E750" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -14725,7 +14659,7 @@
         <v>255</v>
       </c>
       <c r="D751" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -14736,7 +14670,7 @@
         <v>6770512</v>
       </c>
       <c r="C752" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D752" t="s">
         <v>540</v>
@@ -14756,7 +14690,7 @@
         <v>513</v>
       </c>
       <c r="E753" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -14781,7 +14715,7 @@
         <v>513</v>
       </c>
       <c r="E755" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -14798,7 +14732,7 @@
         <v>513</v>
       </c>
       <c r="E756" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -14834,7 +14768,7 @@
         <v>4</v>
       </c>
       <c r="D759" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -14862,10 +14796,10 @@
         <v>35</v>
       </c>
       <c r="D761" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E761" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -14879,7 +14813,7 @@
         <v>74</v>
       </c>
       <c r="E762" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -14924,7 +14858,7 @@
         <v>545</v>
       </c>
       <c r="E765" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -14955,7 +14889,7 @@
         <v>521</v>
       </c>
       <c r="E767" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -14986,7 +14920,7 @@
         <v>521</v>
       </c>
       <c r="E769" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -15014,10 +14948,10 @@
         <v>35</v>
       </c>
       <c r="D771" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E771" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -15062,7 +14996,7 @@
         <v>533</v>
       </c>
       <c r="E774" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -15079,7 +15013,7 @@
         <v>540</v>
       </c>
       <c r="E775" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -15113,7 +15047,7 @@
         <v>514</v>
       </c>
       <c r="E777" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -15163,7 +15097,7 @@
         <v>263</v>
       </c>
       <c r="D781" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -15177,10 +15111,10 @@
         <v>264</v>
       </c>
       <c r="D782" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E782" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -15194,7 +15128,7 @@
         <v>9</v>
       </c>
       <c r="E783" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="784" spans="1:5">
@@ -15211,7 +15145,7 @@
         <v>513</v>
       </c>
       <c r="E784" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -15247,7 +15181,7 @@
         <v>513</v>
       </c>
       <c r="E787" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="788" spans="1:5">
@@ -15278,7 +15212,7 @@
         <v>513</v>
       </c>
       <c r="E789" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -15295,7 +15229,7 @@
         <v>513</v>
       </c>
       <c r="E790" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -15312,7 +15246,7 @@
         <v>513</v>
       </c>
       <c r="E791" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -15329,7 +15263,7 @@
         <v>513</v>
       </c>
       <c r="E792" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -15346,7 +15280,7 @@
         <v>524</v>
       </c>
       <c r="E793" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -15363,7 +15297,7 @@
         <v>513</v>
       </c>
       <c r="E794" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -15388,7 +15322,7 @@
         <v>519</v>
       </c>
       <c r="E796" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -15405,7 +15339,7 @@
         <v>513</v>
       </c>
       <c r="E797" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -15422,7 +15356,7 @@
         <v>513</v>
       </c>
       <c r="E798" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -15471,7 +15405,7 @@
         <v>524</v>
       </c>
       <c r="E803" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -15488,7 +15422,7 @@
         <v>526</v>
       </c>
       <c r="E804" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -15604,10 +15538,10 @@
         <v>28</v>
       </c>
       <c r="D817" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E817" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -15632,7 +15566,7 @@
         <v>512</v>
       </c>
       <c r="E819" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="820" spans="1:5">
@@ -15643,7 +15577,7 @@
         <v>7032931</v>
       </c>
       <c r="C820" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D820" t="s">
         <v>513</v>
@@ -15688,7 +15622,7 @@
         <v>272</v>
       </c>
       <c r="D823" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="824" spans="1:5">
@@ -15761,7 +15695,7 @@
         <v>545</v>
       </c>
       <c r="E828" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -15865,7 +15799,7 @@
         <v>513</v>
       </c>
       <c r="E835" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -15882,7 +15816,7 @@
         <v>545</v>
       </c>
       <c r="E836" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="837" spans="1:5">
@@ -15913,7 +15847,7 @@
         <v>526</v>
       </c>
       <c r="E838" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="839" spans="1:5">
@@ -15930,7 +15864,7 @@
         <v>529</v>
       </c>
       <c r="E839" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="840" spans="1:5">
@@ -15947,7 +15881,7 @@
         <v>517</v>
       </c>
       <c r="E840" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="841" spans="1:5">
@@ -15961,10 +15895,10 @@
         <v>9</v>
       </c>
       <c r="D841" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E841" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -16023,7 +15957,7 @@
         <v>521</v>
       </c>
       <c r="E845" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -16076,7 +16010,7 @@
         <v>513</v>
       </c>
       <c r="E849" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="850" spans="1:5">
@@ -16087,13 +16021,13 @@
         <v>6794123</v>
       </c>
       <c r="C850" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D850" t="s">
         <v>529</v>
       </c>
       <c r="E850" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="851" spans="1:5">
@@ -16158,7 +16092,7 @@
         <v>545</v>
       </c>
       <c r="E857" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -16183,7 +16117,7 @@
         <v>528</v>
       </c>
       <c r="E859" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -16200,7 +16134,7 @@
         <v>528</v>
       </c>
       <c r="E860" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -16214,10 +16148,10 @@
         <v>9</v>
       </c>
       <c r="D861" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E861" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -16245,7 +16179,7 @@
         <v>280</v>
       </c>
       <c r="D863" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="864" spans="1:5">
@@ -16262,7 +16196,7 @@
         <v>521</v>
       </c>
       <c r="E864" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -16298,7 +16232,7 @@
         <v>520</v>
       </c>
       <c r="E867" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -16315,7 +16249,7 @@
         <v>526</v>
       </c>
       <c r="E868" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -16394,7 +16328,7 @@
         <v>532</v>
       </c>
       <c r="E876" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -16411,7 +16345,7 @@
         <v>535</v>
       </c>
       <c r="E877" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -16442,7 +16376,7 @@
         <v>529</v>
       </c>
       <c r="E879" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -16470,7 +16404,7 @@
         <v>284</v>
       </c>
       <c r="D881" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -16532,7 +16466,7 @@
         <v>513</v>
       </c>
       <c r="E885" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="886" spans="1:5">
@@ -16563,7 +16497,7 @@
         <v>513</v>
       </c>
       <c r="E887" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -16631,10 +16565,10 @@
         <v>37</v>
       </c>
       <c r="D894" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E894" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="895" spans="1:5">
@@ -16676,7 +16610,7 @@
         <v>28</v>
       </c>
       <c r="D897" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="898" spans="1:5">
@@ -16704,7 +16638,7 @@
         <v>28</v>
       </c>
       <c r="D899" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="900" spans="1:5">
@@ -16715,7 +16649,7 @@
         <v>6996384</v>
       </c>
       <c r="C900" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D900" t="s">
         <v>519</v>
@@ -16752,7 +16686,7 @@
         <v>521</v>
       </c>
       <c r="E902" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="903" spans="1:5">
@@ -16805,7 +16739,7 @@
         <v>513</v>
       </c>
       <c r="E906" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -16822,7 +16756,7 @@
         <v>513</v>
       </c>
       <c r="E907" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="908" spans="1:5">
@@ -16881,7 +16815,7 @@
         <v>526</v>
       </c>
       <c r="E911" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="912" spans="1:5">
@@ -16898,7 +16832,7 @@
         <v>521</v>
       </c>
       <c r="E912" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="913" spans="1:5">
@@ -16920,7 +16854,7 @@
         <v>35</v>
       </c>
       <c r="E914" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -16959,10 +16893,10 @@
         <v>7070341</v>
       </c>
       <c r="C917" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D917" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="918" spans="1:5">
@@ -16979,7 +16913,7 @@
         <v>520</v>
       </c>
       <c r="E918" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="919" spans="1:5">
@@ -17049,10 +16983,10 @@
         <v>99</v>
       </c>
       <c r="D923" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E923" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="924" spans="1:5">
@@ -17069,7 +17003,7 @@
         <v>513</v>
       </c>
       <c r="E924" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="925" spans="1:5">
@@ -17083,7 +17017,7 @@
         <v>23</v>
       </c>
       <c r="E925" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="926" spans="1:5">
@@ -17100,7 +17034,7 @@
         <v>521</v>
       </c>
       <c r="E926" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="927" spans="1:5">
@@ -17164,7 +17098,7 @@
         <v>513</v>
       </c>
       <c r="E931" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -17181,7 +17115,7 @@
         <v>526</v>
       </c>
       <c r="E932" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="933" spans="1:5">
@@ -17206,7 +17140,7 @@
         <v>513</v>
       </c>
       <c r="E934" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -17220,10 +17154,10 @@
         <v>9</v>
       </c>
       <c r="D935" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E935" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -17240,7 +17174,7 @@
         <v>526</v>
       </c>
       <c r="E936" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="937" spans="1:5">
@@ -17273,10 +17207,10 @@
         <v>34</v>
       </c>
       <c r="D939" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E939" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="940" spans="1:5">
@@ -17301,7 +17235,7 @@
         <v>519</v>
       </c>
       <c r="E941" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="942" spans="1:5">
@@ -17315,7 +17249,7 @@
         <v>297</v>
       </c>
       <c r="D942" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="943" spans="1:5">
@@ -17346,7 +17280,7 @@
         <v>520</v>
       </c>
       <c r="E944" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -17379,7 +17313,7 @@
         <v>545</v>
       </c>
       <c r="E947" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -17396,7 +17330,7 @@
         <v>515</v>
       </c>
       <c r="E948" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="949" spans="1:5">
@@ -17413,7 +17347,7 @@
         <v>513</v>
       </c>
       <c r="E949" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -17455,7 +17389,7 @@
         <v>16</v>
       </c>
       <c r="D952" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="953" spans="1:5">
@@ -17489,12 +17423,6 @@
       <c r="B956">
         <v>6756481</v>
       </c>
-      <c r="C956" t="s">
-        <v>9</v>
-      </c>
-      <c r="D956" t="s">
-        <v>545</v>
-      </c>
     </row>
     <row r="957" spans="1:5">
       <c r="A957" s="1">
@@ -17504,7 +17432,7 @@
         <v>7068902</v>
       </c>
       <c r="C957" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D957" t="s">
         <v>531</v>
@@ -17521,7 +17449,7 @@
         <v>302</v>
       </c>
       <c r="D958" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="959" spans="1:5">
@@ -17538,7 +17466,7 @@
         <v>513</v>
       </c>
       <c r="E959" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="960" spans="1:5">
@@ -17599,7 +17527,7 @@
         <v>519</v>
       </c>
       <c r="E964" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="965" spans="1:5">
@@ -17621,7 +17549,7 @@
         <v>9</v>
       </c>
       <c r="D966" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="967" spans="1:5">
@@ -17667,7 +17595,7 @@
         <v>157</v>
       </c>
       <c r="D971" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="972" spans="1:5">
@@ -17695,7 +17623,7 @@
         <v>521</v>
       </c>
       <c r="E973" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -17712,7 +17640,7 @@
         <v>536</v>
       </c>
       <c r="E974" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="975" spans="1:5">
@@ -17723,13 +17651,13 @@
         <v>6925342</v>
       </c>
       <c r="C975" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D975" t="s">
         <v>513</v>
       </c>
       <c r="E975" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -17746,7 +17674,7 @@
         <v>519</v>
       </c>
       <c r="E976" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="977" spans="1:5">
@@ -17760,10 +17688,10 @@
         <v>305</v>
       </c>
       <c r="D977" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E977" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -17780,7 +17708,7 @@
         <v>513</v>
       </c>
       <c r="E978" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -17797,7 +17725,7 @@
         <v>513</v>
       </c>
       <c r="E979" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="980" spans="1:5">
@@ -17811,7 +17739,7 @@
         <v>307</v>
       </c>
       <c r="D980" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
     </row>
     <row r="981" spans="1:5">
@@ -17836,7 +17764,7 @@
         <v>520</v>
       </c>
       <c r="E982" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="983" spans="1:5">
@@ -17853,7 +17781,7 @@
         <v>540</v>
       </c>
       <c r="E983" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="984" spans="1:5">
@@ -17870,7 +17798,7 @@
         <v>512</v>
       </c>
       <c r="E984" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="985" spans="1:5">
@@ -17895,7 +17823,7 @@
         <v>513</v>
       </c>
       <c r="E986" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="987" spans="1:5">
@@ -17912,7 +17840,7 @@
         <v>540</v>
       </c>
       <c r="E987" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="988" spans="1:5">
@@ -17940,10 +17868,10 @@
         <v>9</v>
       </c>
       <c r="D989" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E989" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -18010,7 +17938,7 @@
         <v>520</v>
       </c>
       <c r="E994" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="995" spans="1:5">
@@ -18032,7 +17960,7 @@
         <v>4</v>
       </c>
       <c r="D996" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="997" spans="1:5">
@@ -18049,7 +17977,7 @@
         <v>520</v>
       </c>
       <c r="E997" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="998" spans="1:5">
@@ -18066,7 +17994,7 @@
         <v>588</v>
       </c>
       <c r="E998" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -18080,10 +18008,10 @@
         <v>314</v>
       </c>
       <c r="D999" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E999" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -18148,7 +18076,7 @@
         <v>316</v>
       </c>
       <c r="D1006" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E1006" t="s">
         <v>646</v>
@@ -18308,10 +18236,10 @@
         <v>6957467</v>
       </c>
       <c r="C1023" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1023" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1024" spans="1:5">
@@ -18328,7 +18256,7 @@
         <v>545</v>
       </c>
       <c r="E1024" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1025" spans="1:5">
@@ -18345,7 +18273,7 @@
         <v>531</v>
       </c>
       <c r="E1025" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
@@ -18369,12 +18297,6 @@
       <c r="B1027">
         <v>6787206</v>
       </c>
-      <c r="C1027" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1027" t="s">
-        <v>589</v>
-      </c>
     </row>
     <row r="1028" spans="1:5">
       <c r="A1028" s="1">
@@ -18418,7 +18340,7 @@
         <v>519</v>
       </c>
       <c r="E1030" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1031" spans="1:5">
@@ -18440,7 +18362,7 @@
         <v>256</v>
       </c>
       <c r="E1032" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1033" spans="1:5">
@@ -18454,7 +18376,7 @@
         <v>270</v>
       </c>
       <c r="D1033" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
@@ -18468,7 +18390,7 @@
         <v>9</v>
       </c>
       <c r="E1034" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1035" spans="1:5">
@@ -18479,10 +18401,10 @@
         <v>6986460</v>
       </c>
       <c r="C1035" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1035" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1036" spans="1:5">
@@ -18496,7 +18418,7 @@
         <v>41</v>
       </c>
       <c r="E1036" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1037" spans="1:5">
@@ -18513,7 +18435,7 @@
         <v>519</v>
       </c>
       <c r="E1037" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1038" spans="1:5">
@@ -18530,7 +18452,7 @@
         <v>521</v>
       </c>
       <c r="E1038" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1039" spans="1:5">
@@ -18544,10 +18466,10 @@
         <v>9</v>
       </c>
       <c r="D1039" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1039" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1040" spans="1:5">
@@ -18561,10 +18483,10 @@
         <v>4</v>
       </c>
       <c r="D1040" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E1040" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1041" spans="1:5">
@@ -18578,10 +18500,10 @@
         <v>9</v>
       </c>
       <c r="D1041" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E1041" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1042" spans="1:5">
@@ -18598,7 +18520,7 @@
         <v>521</v>
       </c>
       <c r="E1042" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1043" spans="1:5">
@@ -18615,7 +18537,7 @@
         <v>545</v>
       </c>
       <c r="E1043" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1044" spans="1:5">
@@ -18648,7 +18570,7 @@
         <v>6947252</v>
       </c>
       <c r="C1046" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1046" t="s">
         <v>521</v>
@@ -18697,7 +18619,7 @@
         <v>323</v>
       </c>
       <c r="D1051" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1052" spans="1:5">
@@ -18722,7 +18644,7 @@
         <v>545</v>
       </c>
       <c r="E1053" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1054" spans="1:5">
@@ -18739,7 +18661,7 @@
         <v>526</v>
       </c>
       <c r="E1054" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1055" spans="1:5">
@@ -18761,7 +18683,7 @@
         <v>166</v>
       </c>
       <c r="D1056" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1057" spans="1:5">
@@ -18778,7 +18700,7 @@
         <v>520</v>
       </c>
       <c r="E1057" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1058" spans="1:5">
@@ -18788,12 +18710,6 @@
       <c r="B1058">
         <v>6756347</v>
       </c>
-      <c r="C1058" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1058" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="1059" spans="1:5">
       <c r="A1059" s="1">
@@ -18830,7 +18746,7 @@
         <v>9</v>
       </c>
       <c r="D1062" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="1063" spans="1:5">
@@ -18852,7 +18768,7 @@
         <v>9</v>
       </c>
       <c r="D1064" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1065" spans="1:5">
@@ -18971,10 +18887,10 @@
         <v>23</v>
       </c>
       <c r="D1077" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1077" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1078" spans="1:5">
@@ -19013,7 +18929,7 @@
         <v>7015033</v>
       </c>
       <c r="C1080" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1080" t="s">
         <v>545</v>
@@ -19044,7 +18960,7 @@
         <v>326</v>
       </c>
       <c r="D1082" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1083" spans="1:5">
@@ -19128,7 +19044,7 @@
         <v>35</v>
       </c>
       <c r="E1088" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1089" spans="1:5">
@@ -19145,7 +19061,7 @@
         <v>521</v>
       </c>
       <c r="E1089" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1090" spans="1:5">
@@ -19167,10 +19083,10 @@
         <v>4</v>
       </c>
       <c r="D1091" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E1091" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1092" spans="1:5">
@@ -19198,7 +19114,7 @@
         <v>9</v>
       </c>
       <c r="E1093" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="1094" spans="1:5">
@@ -19223,7 +19139,7 @@
         <v>513</v>
       </c>
       <c r="E1095" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1096" spans="1:5">
@@ -19237,7 +19153,7 @@
         <v>93</v>
       </c>
       <c r="D1096" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1097" spans="1:5">
@@ -19276,7 +19192,7 @@
         <v>529</v>
       </c>
       <c r="E1099" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1100" spans="1:5">
@@ -19312,7 +19228,7 @@
         <v>36</v>
       </c>
       <c r="D1102" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -19351,7 +19267,7 @@
         <v>516</v>
       </c>
       <c r="E1105" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1106" spans="1:5">
@@ -19368,7 +19284,7 @@
         <v>521</v>
       </c>
       <c r="E1106" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -19382,10 +19298,10 @@
         <v>332</v>
       </c>
       <c r="D1107" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1107" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
@@ -19399,7 +19315,7 @@
         <v>28</v>
       </c>
       <c r="D1108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1109" spans="1:5">
@@ -19413,7 +19329,7 @@
         <v>9</v>
       </c>
       <c r="D1109" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
@@ -19441,10 +19357,10 @@
         <v>9</v>
       </c>
       <c r="D1111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E1111" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1112" spans="1:5">
@@ -19475,7 +19391,7 @@
         <v>513</v>
       </c>
       <c r="E1113" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1114" spans="1:5">
@@ -19492,7 +19408,7 @@
         <v>521</v>
       </c>
       <c r="E1114" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1115" spans="1:5">
@@ -19517,7 +19433,7 @@
         <v>526</v>
       </c>
       <c r="E1116" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
@@ -19558,7 +19474,7 @@
         <v>513</v>
       </c>
       <c r="E1120" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
@@ -19575,7 +19491,7 @@
         <v>540</v>
       </c>
       <c r="E1121" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
@@ -19589,7 +19505,7 @@
         <v>28</v>
       </c>
       <c r="D1122" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1123" spans="1:5">
@@ -19644,7 +19560,7 @@
         <v>535</v>
       </c>
       <c r="E1127" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
@@ -19663,7 +19579,7 @@
         <v>6961778</v>
       </c>
       <c r="C1129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1129" t="s">
         <v>525</v>
@@ -19691,13 +19607,13 @@
         <v>6852546</v>
       </c>
       <c r="C1131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1131" t="s">
         <v>520</v>
       </c>
       <c r="E1131" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1132" spans="1:5">
@@ -19714,7 +19630,7 @@
         <v>524</v>
       </c>
       <c r="E1132" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -19739,7 +19655,7 @@
         <v>522</v>
       </c>
       <c r="E1134" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1135" spans="1:5">
@@ -19756,7 +19672,7 @@
         <v>513</v>
       </c>
       <c r="E1135" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1136" spans="1:5">
@@ -19787,7 +19703,7 @@
         <v>513</v>
       </c>
       <c r="E1137" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1138" spans="1:5">
@@ -19804,7 +19720,7 @@
         <v>513</v>
       </c>
       <c r="E1138" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1139" spans="1:5">
@@ -19821,7 +19737,7 @@
         <v>545</v>
       </c>
       <c r="E1139" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1140" spans="1:5">
@@ -19860,7 +19776,7 @@
         <v>513</v>
       </c>
       <c r="E1142" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1143" spans="1:5">
@@ -19874,7 +19790,7 @@
         <v>340</v>
       </c>
       <c r="E1143" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1144" spans="1:5">
@@ -19921,10 +19837,10 @@
         <v>7064660</v>
       </c>
       <c r="C1147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
@@ -19955,7 +19871,7 @@
         <v>545</v>
       </c>
       <c r="E1149" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1150" spans="1:5">
@@ -19972,7 +19888,7 @@
         <v>513</v>
       </c>
       <c r="E1150" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1151" spans="1:5">
@@ -19989,7 +19905,7 @@
         <v>521</v>
       </c>
       <c r="E1151" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1152" spans="1:5">
@@ -20006,7 +19922,7 @@
         <v>521</v>
       </c>
       <c r="E1152" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1153" spans="1:5">
@@ -20065,7 +19981,7 @@
         <v>521</v>
       </c>
       <c r="E1156" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1157" spans="1:5">
@@ -20082,7 +19998,7 @@
         <v>521</v>
       </c>
       <c r="E1157" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1158" spans="1:5">
@@ -20134,10 +20050,10 @@
         <v>9</v>
       </c>
       <c r="D1162" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E1162" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1163" spans="1:5">
@@ -20162,7 +20078,7 @@
         <v>524</v>
       </c>
       <c r="E1164" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1165" spans="1:5">
@@ -20176,7 +20092,7 @@
         <v>20</v>
       </c>
       <c r="E1165" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1166" spans="1:5">
@@ -20190,7 +20106,7 @@
         <v>9</v>
       </c>
       <c r="E1166" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -20232,7 +20148,7 @@
         <v>529</v>
       </c>
       <c r="E1169" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1170" spans="1:5">
@@ -20249,7 +20165,7 @@
         <v>540</v>
       </c>
       <c r="E1170" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1171" spans="1:5">
@@ -20298,7 +20214,7 @@
         <v>513</v>
       </c>
       <c r="E1175" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
@@ -20336,10 +20252,10 @@
         <v>347</v>
       </c>
       <c r="D1179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1179" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
@@ -20370,7 +20286,7 @@
         <v>521</v>
       </c>
       <c r="E1181" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1182" spans="1:5">
@@ -20387,7 +20303,7 @@
         <v>545</v>
       </c>
       <c r="E1182" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1183" spans="1:5">
@@ -20401,10 +20317,10 @@
         <v>51</v>
       </c>
       <c r="D1183" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1183" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
@@ -20435,7 +20351,7 @@
         <v>512</v>
       </c>
       <c r="E1185" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1186" spans="1:5">
@@ -20452,7 +20368,7 @@
         <v>545</v>
       </c>
       <c r="E1186" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
@@ -20547,7 +20463,7 @@
         <v>531</v>
       </c>
       <c r="E1193" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="1194" spans="1:5">
@@ -20572,7 +20488,7 @@
         <v>535</v>
       </c>
       <c r="E1195" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1196" spans="1:5">
@@ -20589,7 +20505,7 @@
         <v>516</v>
       </c>
       <c r="E1196" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1197" spans="1:5">
@@ -20606,7 +20522,7 @@
         <v>530</v>
       </c>
       <c r="E1197" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1198" spans="1:5">
@@ -20639,7 +20555,7 @@
         <v>7032721</v>
       </c>
       <c r="C1200" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1200" t="s">
         <v>516</v>
@@ -20672,10 +20588,10 @@
         <v>353</v>
       </c>
       <c r="D1203" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1203" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1204" spans="1:5">
@@ -20720,7 +20636,7 @@
         <v>524</v>
       </c>
       <c r="E1206" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1207" spans="1:5">
@@ -20737,7 +20653,7 @@
         <v>526</v>
       </c>
       <c r="E1207" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1208" spans="1:5">
@@ -20751,10 +20667,10 @@
         <v>92</v>
       </c>
       <c r="D1208" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E1208" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1209" spans="1:5">
@@ -20796,7 +20712,7 @@
         <v>33</v>
       </c>
       <c r="D1211" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1212" spans="1:5">
@@ -20810,7 +20726,7 @@
         <v>357</v>
       </c>
       <c r="D1212" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1213" spans="1:5">
@@ -20838,7 +20754,7 @@
         <v>147</v>
       </c>
       <c r="D1214" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1215" spans="1:5">
@@ -20855,7 +20771,7 @@
         <v>524</v>
       </c>
       <c r="E1215" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1216" spans="1:5">
@@ -20872,7 +20788,7 @@
         <v>524</v>
       </c>
       <c r="E1216" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1217" spans="1:5">
@@ -20903,7 +20819,7 @@
         <v>513</v>
       </c>
       <c r="E1218" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1219" spans="1:5">
@@ -20969,7 +20885,7 @@
         <v>520</v>
       </c>
       <c r="E1224" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1225" spans="1:5">
@@ -20986,7 +20902,7 @@
         <v>513</v>
       </c>
       <c r="E1225" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1226" spans="1:5">
@@ -21003,7 +20919,7 @@
         <v>526</v>
       </c>
       <c r="E1226" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1227" spans="1:5">
@@ -21025,7 +20941,7 @@
         <v>28</v>
       </c>
       <c r="D1228" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="1229" spans="1:5">
@@ -21050,7 +20966,7 @@
         <v>540</v>
       </c>
       <c r="E1230" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1231" spans="1:5">
@@ -21064,7 +20980,7 @@
         <v>359</v>
       </c>
       <c r="D1231" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -21089,7 +21005,7 @@
         <v>539</v>
       </c>
       <c r="E1233" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1234" spans="1:5">
@@ -21103,10 +21019,10 @@
         <v>4</v>
       </c>
       <c r="D1234" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="E1234" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1235" spans="1:5">
@@ -21123,7 +21039,7 @@
         <v>513</v>
       </c>
       <c r="E1235" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1236" spans="1:5">
@@ -21137,7 +21053,7 @@
         <v>18</v>
       </c>
       <c r="D1236" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1237" spans="1:5">
@@ -21151,7 +21067,7 @@
         <v>35</v>
       </c>
       <c r="D1237" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1238" spans="1:5">
@@ -21165,10 +21081,10 @@
         <v>225</v>
       </c>
       <c r="D1238" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E1238" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1239" spans="1:5">
@@ -21196,7 +21112,7 @@
         <v>9</v>
       </c>
       <c r="D1240" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="1241" spans="1:5">
@@ -21227,7 +21143,7 @@
         <v>526</v>
       </c>
       <c r="E1242" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1243" spans="1:5">
@@ -21238,7 +21154,7 @@
         <v>7026392</v>
       </c>
       <c r="C1243" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1244" spans="1:5">
@@ -21339,7 +21255,7 @@
         <v>526</v>
       </c>
       <c r="E1250" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1251" spans="1:5">
@@ -21397,10 +21313,10 @@
         <v>270</v>
       </c>
       <c r="D1255" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1255" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
@@ -21414,7 +21330,7 @@
         <v>361</v>
       </c>
       <c r="E1256" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
@@ -21442,7 +21358,7 @@
         <v>363</v>
       </c>
       <c r="D1258" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1259" spans="1:5">
@@ -21456,7 +21372,7 @@
         <v>248</v>
       </c>
       <c r="D1259" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1260" spans="1:5">
@@ -21494,10 +21410,10 @@
         <v>31</v>
       </c>
       <c r="D1263" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1263" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1264" spans="1:5">
@@ -21522,7 +21438,7 @@
         <v>529</v>
       </c>
       <c r="E1265" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -21539,7 +21455,7 @@
         <v>524</v>
       </c>
       <c r="E1266" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -21556,7 +21472,7 @@
         <v>519</v>
       </c>
       <c r="E1267" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1268" spans="1:5">
@@ -21584,10 +21500,10 @@
         <v>365</v>
       </c>
       <c r="D1269" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1269" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1270" spans="1:5">
@@ -21618,7 +21534,7 @@
         <v>513</v>
       </c>
       <c r="E1271" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1272" spans="1:5">
@@ -21649,7 +21565,7 @@
         <v>520</v>
       </c>
       <c r="E1273" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1274" spans="1:5">
@@ -21677,7 +21593,7 @@
         <v>33</v>
       </c>
       <c r="D1275" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="1276" spans="1:5">
@@ -21727,7 +21643,7 @@
         <v>525</v>
       </c>
       <c r="E1279" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1280" spans="1:5">
@@ -21744,7 +21660,7 @@
         <v>512</v>
       </c>
       <c r="E1280" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1281" spans="1:5">
@@ -21761,7 +21677,7 @@
         <v>540</v>
       </c>
       <c r="E1281" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1282" spans="1:5">
@@ -21778,7 +21694,7 @@
         <v>513</v>
       </c>
       <c r="E1282" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1283" spans="1:5">
@@ -21800,7 +21716,7 @@
         <v>368</v>
       </c>
       <c r="E1284" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1285" spans="1:5">
@@ -21828,7 +21744,7 @@
         <v>92</v>
       </c>
       <c r="E1286" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1287" spans="1:5">
@@ -21897,7 +21813,7 @@
         <v>513</v>
       </c>
       <c r="E1292" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1293" spans="1:5">
@@ -21928,7 +21844,7 @@
         <v>530</v>
       </c>
       <c r="E1294" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1295" spans="1:5">
@@ -21945,7 +21861,7 @@
         <v>515</v>
       </c>
       <c r="E1295" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1296" spans="1:5">
@@ -21962,7 +21878,7 @@
         <v>512</v>
       </c>
       <c r="E1296" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1297" spans="1:5">
@@ -21995,7 +21911,7 @@
         <v>25</v>
       </c>
       <c r="D1299" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1300" spans="1:5">
@@ -22006,13 +21922,13 @@
         <v>6907022</v>
       </c>
       <c r="C1300" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1300" t="s">
         <v>526</v>
       </c>
       <c r="E1300" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1301" spans="1:5">
@@ -22065,7 +21981,7 @@
         <v>513</v>
       </c>
       <c r="E1304" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1305" spans="1:5">
@@ -22096,7 +22012,7 @@
         <v>516</v>
       </c>
       <c r="E1306" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1307" spans="1:5">
@@ -22110,7 +22026,7 @@
         <v>270</v>
       </c>
       <c r="D1307" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1308" spans="1:5">
@@ -22127,7 +22043,7 @@
         <v>519</v>
       </c>
       <c r="E1308" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1309" spans="1:5">
@@ -22141,7 +22057,7 @@
         <v>35</v>
       </c>
       <c r="E1309" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1310" spans="1:5">
@@ -22186,7 +22102,7 @@
         <v>519</v>
       </c>
       <c r="E1312" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1313" spans="1:5">
@@ -22200,7 +22116,7 @@
         <v>4</v>
       </c>
       <c r="E1313" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1314" spans="1:5">
@@ -22217,7 +22133,7 @@
         <v>521</v>
       </c>
       <c r="E1314" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1315" spans="1:5">
@@ -22258,7 +22174,7 @@
         <v>545</v>
       </c>
       <c r="E1318" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1319" spans="1:5">
@@ -22358,7 +22274,7 @@
         <v>377</v>
       </c>
       <c r="D1326" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1327" spans="1:5">
@@ -22403,7 +22319,7 @@
         <v>518</v>
       </c>
       <c r="E1329" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1330" spans="1:5">
@@ -22448,7 +22364,7 @@
         <v>531</v>
       </c>
       <c r="E1332" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1333" spans="1:5">
@@ -22484,7 +22400,7 @@
         <v>382</v>
       </c>
       <c r="E1335" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1336" spans="1:5">
@@ -22498,7 +22414,7 @@
         <v>6</v>
       </c>
       <c r="D1336" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1337" spans="1:5">
@@ -22515,7 +22431,7 @@
         <v>524</v>
       </c>
       <c r="E1337" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1338" spans="1:5">
@@ -22532,7 +22448,7 @@
         <v>545</v>
       </c>
       <c r="E1338" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
@@ -22549,7 +22465,7 @@
         <v>545</v>
       </c>
       <c r="E1339" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -22566,7 +22482,7 @@
         <v>513</v>
       </c>
       <c r="E1340" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -22622,7 +22538,7 @@
         <v>513</v>
       </c>
       <c r="E1344" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -22653,7 +22569,7 @@
         <v>519</v>
       </c>
       <c r="E1346" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1347" spans="1:5">
@@ -22670,7 +22586,7 @@
         <v>513</v>
       </c>
       <c r="E1347" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1348" spans="1:5">
@@ -22687,7 +22603,7 @@
         <v>513</v>
       </c>
       <c r="E1348" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1349" spans="1:5">
@@ -22704,7 +22620,7 @@
         <v>513</v>
       </c>
       <c r="E1349" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="1350" spans="1:5">
@@ -22721,7 +22637,7 @@
         <v>535</v>
       </c>
       <c r="E1350" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1351" spans="1:5">
@@ -22754,7 +22670,7 @@
         <v>513</v>
       </c>
       <c r="E1353" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1354" spans="1:5">
@@ -22793,7 +22709,7 @@
         <v>515</v>
       </c>
       <c r="E1356" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1357" spans="1:5">
@@ -22821,7 +22737,7 @@
         <v>16</v>
       </c>
       <c r="D1358" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E1358" t="s">
         <v>629</v>
@@ -22841,7 +22757,7 @@
         <v>533</v>
       </c>
       <c r="E1359" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1360" spans="1:5">
@@ -22891,7 +22807,7 @@
         <v>514</v>
       </c>
       <c r="E1363" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1364" spans="1:5">
@@ -22908,7 +22824,7 @@
         <v>518</v>
       </c>
       <c r="E1364" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1365" spans="1:5">
@@ -22925,7 +22841,7 @@
         <v>513</v>
       </c>
       <c r="E1365" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1366" spans="1:5">
@@ -22942,7 +22858,7 @@
         <v>526</v>
       </c>
       <c r="E1366" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1367" spans="1:5">
@@ -22967,7 +22883,7 @@
         <v>5959217</v>
       </c>
       <c r="C1368" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1368" t="s">
         <v>530</v>
@@ -23020,7 +22936,7 @@
         <v>396</v>
       </c>
       <c r="D1372" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1373" spans="1:5">
@@ -23037,7 +22953,7 @@
         <v>521</v>
       </c>
       <c r="E1373" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1374" spans="1:5">
@@ -23062,7 +22978,7 @@
         <v>530</v>
       </c>
       <c r="E1375" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1376" spans="1:5">
@@ -23079,7 +22995,7 @@
         <v>513</v>
       </c>
       <c r="E1376" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1377" spans="1:5">
@@ -23090,7 +23006,7 @@
         <v>6849673</v>
       </c>
       <c r="C1377" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1377" t="s">
         <v>521</v>
@@ -23121,7 +23037,7 @@
         <v>398</v>
       </c>
       <c r="D1379" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -23138,7 +23054,7 @@
         <v>513</v>
       </c>
       <c r="E1380" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1381" spans="1:5">
@@ -23160,7 +23076,7 @@
         <v>9</v>
       </c>
       <c r="D1382" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="1383" spans="1:5">
@@ -23191,7 +23107,7 @@
         <v>526</v>
       </c>
       <c r="E1384" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -23208,7 +23124,7 @@
         <v>513</v>
       </c>
       <c r="E1385" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -23230,7 +23146,7 @@
         <v>9</v>
       </c>
       <c r="D1387" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -23247,7 +23163,7 @@
         <v>521</v>
       </c>
       <c r="E1388" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -23261,10 +23177,10 @@
         <v>400</v>
       </c>
       <c r="D1389" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1389" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -23313,7 +23229,7 @@
         <v>526</v>
       </c>
       <c r="E1394" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -23390,7 +23306,7 @@
         <v>14</v>
       </c>
       <c r="E1401" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1402" spans="1:5">
@@ -23424,7 +23340,7 @@
         <v>521</v>
       </c>
       <c r="E1403" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -23441,7 +23357,7 @@
         <v>520</v>
       </c>
       <c r="E1404" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -23458,7 +23374,7 @@
         <v>513</v>
       </c>
       <c r="E1405" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -23475,7 +23391,7 @@
         <v>540</v>
       </c>
       <c r="E1406" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -23510,7 +23426,7 @@
         <v>6832519</v>
       </c>
       <c r="C1410" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D1410" t="s">
         <v>525</v>
@@ -23530,7 +23446,7 @@
         <v>530</v>
       </c>
       <c r="E1411" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1412" spans="1:5">
@@ -23544,7 +23460,7 @@
         <v>18</v>
       </c>
       <c r="D1412" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1413" spans="1:5">
@@ -23583,7 +23499,7 @@
         <v>519</v>
       </c>
       <c r="E1415" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -23627,10 +23543,10 @@
         <v>407</v>
       </c>
       <c r="D1419" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1419" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1420" spans="1:5">
@@ -23644,7 +23560,7 @@
         <v>408</v>
       </c>
       <c r="D1420" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1421" spans="1:5">
@@ -23691,7 +23607,7 @@
         <v>526</v>
       </c>
       <c r="E1424" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1425" spans="1:5">
@@ -23722,7 +23638,7 @@
         <v>520</v>
       </c>
       <c r="E1426" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1427" spans="1:5">
@@ -23753,7 +23669,7 @@
         <v>524</v>
       </c>
       <c r="E1428" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1429" spans="1:5">
@@ -23770,7 +23686,7 @@
         <v>513</v>
       </c>
       <c r="E1429" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1430" spans="1:5">
@@ -23798,7 +23714,7 @@
         <v>410</v>
       </c>
       <c r="D1431" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1432" spans="1:5">
@@ -23828,7 +23744,7 @@
         <v>411</v>
       </c>
       <c r="D1434" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -23850,10 +23766,10 @@
         <v>23</v>
       </c>
       <c r="D1436" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E1436" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1437" spans="1:5">
@@ -23870,7 +23786,7 @@
         <v>519</v>
       </c>
       <c r="E1437" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -23904,7 +23820,7 @@
         <v>521</v>
       </c>
       <c r="E1439" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1440" spans="1:5">
@@ -23932,7 +23848,7 @@
         <v>35</v>
       </c>
       <c r="E1441" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1442" spans="1:5">
@@ -23991,7 +23907,7 @@
         <v>545</v>
       </c>
       <c r="E1445" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1446" spans="1:5">
@@ -24008,7 +23924,7 @@
         <v>517</v>
       </c>
       <c r="E1446" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1447" spans="1:5">
@@ -24055,7 +23971,7 @@
         <v>513</v>
       </c>
       <c r="E1450" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1451" spans="1:5">
@@ -24083,7 +23999,7 @@
         <v>417</v>
       </c>
       <c r="D1452" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="1453" spans="1:5">
@@ -24114,7 +24030,7 @@
         <v>519</v>
       </c>
       <c r="E1454" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -24150,7 +24066,7 @@
         <v>418</v>
       </c>
       <c r="E1457" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -24167,7 +24083,7 @@
         <v>545</v>
       </c>
       <c r="E1458" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1459" spans="1:5">
@@ -24225,7 +24141,7 @@
         <v>92</v>
       </c>
       <c r="E1463" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -24242,7 +24158,7 @@
         <v>532</v>
       </c>
       <c r="E1464" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1465" spans="1:5">
@@ -24259,7 +24175,7 @@
         <v>526</v>
       </c>
       <c r="E1465" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1466" spans="1:5">
@@ -24287,10 +24203,10 @@
         <v>421</v>
       </c>
       <c r="D1467" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1467" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -24307,7 +24223,7 @@
         <v>513</v>
       </c>
       <c r="E1468" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1469" spans="1:5">
@@ -24332,7 +24248,7 @@
         <v>532</v>
       </c>
       <c r="E1470" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1471" spans="1:5">
@@ -24346,7 +24262,7 @@
         <v>35</v>
       </c>
       <c r="D1471" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1472" spans="1:5">
@@ -24363,7 +24279,7 @@
         <v>535</v>
       </c>
       <c r="E1472" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1473" spans="1:5">
@@ -24377,7 +24293,7 @@
         <v>9</v>
       </c>
       <c r="D1473" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1474" spans="1:5">
@@ -24460,7 +24376,7 @@
         <v>535</v>
       </c>
       <c r="E1480" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1481" spans="1:5">
@@ -24477,7 +24393,7 @@
         <v>588</v>
       </c>
       <c r="E1481" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1482" spans="1:5">
@@ -24491,7 +24407,7 @@
         <v>9</v>
       </c>
       <c r="D1482" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1483" spans="1:5">
@@ -24508,7 +24424,7 @@
         <v>513</v>
       </c>
       <c r="E1483" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1484" spans="1:5">
@@ -24525,7 +24441,7 @@
         <v>513</v>
       </c>
       <c r="E1484" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1485" spans="1:5">
@@ -24556,7 +24472,7 @@
         <v>513</v>
       </c>
       <c r="E1486" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1487" spans="1:5">
@@ -24570,10 +24486,10 @@
         <v>16</v>
       </c>
       <c r="D1487" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1487" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1488" spans="1:5">
@@ -24587,7 +24503,7 @@
         <v>9</v>
       </c>
       <c r="D1488" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1489" spans="1:5">
@@ -24623,7 +24539,7 @@
         <v>427</v>
       </c>
       <c r="D1491" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1492" spans="1:5">
@@ -24662,7 +24578,7 @@
         <v>535</v>
       </c>
       <c r="E1494" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1495" spans="1:5">
@@ -24776,7 +24692,7 @@
         <v>515</v>
       </c>
       <c r="E1503" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1504" spans="1:5">
@@ -24807,7 +24723,7 @@
         <v>513</v>
       </c>
       <c r="E1505" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1506" spans="1:5">
@@ -24821,7 +24737,7 @@
         <v>430</v>
       </c>
       <c r="D1506" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
@@ -24860,7 +24776,7 @@
         <v>524</v>
       </c>
       <c r="E1509" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1510" spans="1:5">
@@ -24877,7 +24793,7 @@
         <v>599</v>
       </c>
       <c r="E1510" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
@@ -24894,7 +24810,7 @@
         <v>545</v>
       </c>
       <c r="E1511" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1512" spans="1:5">
@@ -24919,7 +24835,7 @@
         <v>545</v>
       </c>
       <c r="E1513" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
@@ -24933,10 +24849,10 @@
         <v>433</v>
       </c>
       <c r="D1514" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1514" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
@@ -24982,10 +24898,10 @@
         <v>9</v>
       </c>
       <c r="D1519" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1519" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
@@ -24999,10 +24915,10 @@
         <v>4</v>
       </c>
       <c r="D1520" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1520" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -25061,7 +24977,7 @@
         <v>525</v>
       </c>
       <c r="E1524" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1525" spans="1:5">
@@ -25092,7 +25008,7 @@
         <v>545</v>
       </c>
       <c r="E1526" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -25133,7 +25049,7 @@
         <v>535</v>
       </c>
       <c r="E1530" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -25164,7 +25080,7 @@
         <v>521</v>
       </c>
       <c r="E1532" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -25195,7 +25111,7 @@
         <v>521</v>
       </c>
       <c r="E1534" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1535" spans="1:5">
@@ -25209,10 +25125,10 @@
         <v>256</v>
       </c>
       <c r="D1535" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1535" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1536" spans="1:5">
@@ -25237,7 +25153,7 @@
         <v>519</v>
       </c>
       <c r="E1537" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1538" spans="1:5">
@@ -25268,7 +25184,7 @@
         <v>525</v>
       </c>
       <c r="E1539" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1540" spans="1:5">
@@ -25285,7 +25201,7 @@
         <v>524</v>
       </c>
       <c r="E1540" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -25302,7 +25218,7 @@
         <v>513</v>
       </c>
       <c r="E1541" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1542" spans="1:5">
@@ -25319,7 +25235,7 @@
         <v>521</v>
       </c>
       <c r="E1542" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1543" spans="1:5">
@@ -25364,7 +25280,7 @@
         <v>533</v>
       </c>
       <c r="E1545" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -25414,10 +25330,10 @@
         <v>442</v>
       </c>
       <c r="D1549" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1549" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -25434,7 +25350,7 @@
         <v>526</v>
       </c>
       <c r="E1550" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -25462,7 +25378,7 @@
         <v>523</v>
       </c>
       <c r="E1552" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1553" spans="1:5">
@@ -25479,7 +25395,7 @@
         <v>526</v>
       </c>
       <c r="E1553" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -25496,7 +25412,7 @@
         <v>523</v>
       </c>
       <c r="E1554" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1555" spans="1:5">
@@ -25541,7 +25457,7 @@
         <v>526</v>
       </c>
       <c r="E1557" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1558" spans="1:5">
@@ -25587,10 +25503,10 @@
         <v>444</v>
       </c>
       <c r="D1562" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1562" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="1563" spans="1:5">
@@ -25629,7 +25545,7 @@
         <v>523</v>
       </c>
       <c r="E1565" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1566" spans="1:5">
@@ -25646,7 +25562,7 @@
         <v>526</v>
       </c>
       <c r="E1566" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1567" spans="1:5">
@@ -25660,10 +25576,10 @@
         <v>4</v>
       </c>
       <c r="D1567" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E1567" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1568" spans="1:5">
@@ -25677,7 +25593,7 @@
         <v>9</v>
       </c>
       <c r="D1568" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1569" spans="1:5">
@@ -25691,7 +25607,7 @@
         <v>9</v>
       </c>
       <c r="D1569" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1570" spans="1:5">
@@ -25733,7 +25649,7 @@
         <v>34</v>
       </c>
       <c r="D1572" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1573" spans="1:5">
@@ -25822,7 +25738,7 @@
         <v>513</v>
       </c>
       <c r="E1579" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1580" spans="1:5">
@@ -25850,10 +25766,10 @@
         <v>9</v>
       </c>
       <c r="D1581" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E1581" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1582" spans="1:5">
@@ -25870,7 +25786,7 @@
         <v>534</v>
       </c>
       <c r="E1582" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1583" spans="1:5">
@@ -25887,7 +25803,7 @@
         <v>513</v>
       </c>
       <c r="E1583" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1584" spans="1:5">
@@ -25904,7 +25820,7 @@
         <v>524</v>
       </c>
       <c r="E1584" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1585" spans="1:5">
@@ -25959,7 +25875,7 @@
         <v>513</v>
       </c>
       <c r="E1589" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -25973,10 +25889,10 @@
         <v>9</v>
       </c>
       <c r="D1590" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E1590" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -26001,13 +25917,13 @@
         <v>6982727</v>
       </c>
       <c r="C1592" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1592" t="s">
         <v>513</v>
       </c>
       <c r="E1592" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1593" spans="1:5">
@@ -26024,7 +25940,7 @@
         <v>521</v>
       </c>
       <c r="E1593" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1594" spans="1:5">
@@ -26055,7 +25971,7 @@
         <v>520</v>
       </c>
       <c r="E1595" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1596" spans="1:5">
@@ -26072,7 +25988,7 @@
         <v>526</v>
       </c>
       <c r="E1596" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1597" spans="1:5">
@@ -26086,7 +26002,7 @@
         <v>92</v>
       </c>
       <c r="D1597" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="1598" spans="1:5">
@@ -26103,7 +26019,7 @@
         <v>519</v>
       </c>
       <c r="E1598" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1599" spans="1:5">
@@ -26120,7 +26036,7 @@
         <v>519</v>
       </c>
       <c r="E1599" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1600" spans="1:5">
@@ -26186,7 +26102,7 @@
         <v>456</v>
       </c>
       <c r="D1605" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1606" spans="1:5">
@@ -26203,7 +26119,7 @@
         <v>513</v>
       </c>
       <c r="E1606" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1607" spans="1:5">
@@ -26236,7 +26152,7 @@
         <v>513</v>
       </c>
       <c r="E1609" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1610" spans="1:5">
@@ -26253,7 +26169,7 @@
         <v>524</v>
       </c>
       <c r="E1610" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1611" spans="1:5">
@@ -26297,7 +26213,7 @@
         <v>31</v>
       </c>
       <c r="E1614" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1615" spans="1:5">
@@ -26338,7 +26254,7 @@
         <v>520</v>
       </c>
       <c r="E1618" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1619" spans="1:5">
@@ -26369,7 +26285,7 @@
         <v>513</v>
       </c>
       <c r="E1620" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1621" spans="1:5">
@@ -26386,7 +26302,7 @@
         <v>517</v>
       </c>
       <c r="E1621" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1622" spans="1:5">
@@ -26403,7 +26319,7 @@
         <v>526</v>
       </c>
       <c r="E1622" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1623" spans="1:5">
@@ -26420,7 +26336,7 @@
         <v>515</v>
       </c>
       <c r="E1623" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1624" spans="1:5">
@@ -26437,7 +26353,7 @@
         <v>527</v>
       </c>
       <c r="E1624" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1625" spans="1:5">
@@ -26454,7 +26370,7 @@
         <v>526</v>
       </c>
       <c r="E1625" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1626" spans="1:5">
@@ -26465,13 +26381,13 @@
         <v>6917857</v>
       </c>
       <c r="C1626" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1626" t="s">
         <v>513</v>
       </c>
       <c r="E1626" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1627" spans="1:5">
@@ -26488,7 +26404,7 @@
         <v>545</v>
       </c>
       <c r="E1627" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1628" spans="1:5">
@@ -26513,13 +26429,13 @@
         <v>6963015</v>
       </c>
       <c r="C1629" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1629" t="s">
         <v>524</v>
       </c>
       <c r="E1629" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -26552,13 +26468,13 @@
         <v>6960418</v>
       </c>
       <c r="C1632" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1632" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E1632" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1633" spans="1:5">
@@ -26568,12 +26484,6 @@
       <c r="B1633">
         <v>6755512</v>
       </c>
-      <c r="C1633" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1633" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="1634" spans="1:5">
       <c r="A1634" s="1">
@@ -26617,7 +26527,7 @@
         <v>515</v>
       </c>
       <c r="E1636" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -26639,7 +26549,7 @@
         <v>9</v>
       </c>
       <c r="D1638" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1639" spans="1:5">
@@ -26691,7 +26601,7 @@
         <v>36</v>
       </c>
       <c r="D1643" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -26708,7 +26618,7 @@
         <v>520</v>
       </c>
       <c r="E1644" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1645" spans="1:5">
@@ -26719,7 +26629,7 @@
         <v>6882203</v>
       </c>
       <c r="C1645" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1645" t="s">
         <v>521</v>
@@ -26789,7 +26699,7 @@
         <v>535</v>
       </c>
       <c r="E1650" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1651" spans="1:5">
@@ -26828,7 +26738,7 @@
         <v>513</v>
       </c>
       <c r="E1653" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1654" spans="1:5">
@@ -26898,10 +26808,10 @@
         <v>9</v>
       </c>
       <c r="D1658" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E1658" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -26915,7 +26825,7 @@
         <v>34</v>
       </c>
       <c r="D1659" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1660" spans="1:5">
@@ -26932,7 +26842,7 @@
         <v>519</v>
       </c>
       <c r="E1660" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1661" spans="1:5">
@@ -26949,7 +26859,7 @@
         <v>544</v>
       </c>
       <c r="E1661" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1662" spans="1:5">
@@ -26966,7 +26876,7 @@
         <v>521</v>
       </c>
       <c r="E1662" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1663" spans="1:5">
@@ -26980,10 +26890,10 @@
         <v>442</v>
       </c>
       <c r="D1663" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1663" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1664" spans="1:5">
@@ -27013,7 +26923,7 @@
         <v>465</v>
       </c>
       <c r="D1666" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1667" spans="1:5">
@@ -27044,7 +26954,7 @@
         <v>513</v>
       </c>
       <c r="E1668" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1669" spans="1:5">
@@ -27094,7 +27004,7 @@
         <v>524</v>
       </c>
       <c r="E1672" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1673" spans="1:5">
@@ -27111,7 +27021,7 @@
         <v>524</v>
       </c>
       <c r="E1673" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1674" spans="1:5">
@@ -27128,7 +27038,7 @@
         <v>535</v>
       </c>
       <c r="E1674" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1675" spans="1:5">
@@ -27145,7 +27055,7 @@
         <v>513</v>
       </c>
       <c r="E1675" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1676" spans="1:5">
@@ -27176,10 +27086,10 @@
         <v>93</v>
       </c>
       <c r="D1677" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1677" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -27196,7 +27106,7 @@
         <v>512</v>
       </c>
       <c r="E1678" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -27210,10 +27120,10 @@
         <v>221</v>
       </c>
       <c r="D1679" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E1679" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -27227,7 +27137,7 @@
         <v>33</v>
       </c>
       <c r="E1680" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -27272,7 +27182,7 @@
         <v>514</v>
       </c>
       <c r="E1683" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1684" spans="1:5">
@@ -27283,7 +27193,7 @@
         <v>6886255</v>
       </c>
       <c r="C1684" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1684" t="s">
         <v>629</v>
@@ -27300,7 +27210,7 @@
         <v>35</v>
       </c>
       <c r="E1685" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1686" spans="1:5">
@@ -27317,7 +27227,7 @@
         <v>518</v>
       </c>
       <c r="E1686" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -27373,7 +27283,7 @@
         <v>519</v>
       </c>
       <c r="E1690" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1691" spans="1:5">
@@ -27406,7 +27316,7 @@
         <v>520</v>
       </c>
       <c r="E1693" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -27423,7 +27333,7 @@
         <v>535</v>
       </c>
       <c r="E1694" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -27454,7 +27364,7 @@
         <v>513</v>
       </c>
       <c r="E1696" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1697" spans="1:5">
@@ -27485,10 +27395,10 @@
         <v>470</v>
       </c>
       <c r="D1698" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E1698" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1699" spans="1:5">
@@ -27513,7 +27423,7 @@
         <v>524</v>
       </c>
       <c r="E1700" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1701" spans="1:5">
@@ -27571,7 +27481,7 @@
         <v>517</v>
       </c>
       <c r="E1705" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1706" spans="1:5">
@@ -27588,7 +27498,7 @@
         <v>526</v>
       </c>
       <c r="E1706" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1707" spans="1:5">
@@ -27616,7 +27526,7 @@
         <v>263</v>
       </c>
       <c r="E1708" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1709" spans="1:5">
@@ -27675,7 +27585,7 @@
         <v>535</v>
       </c>
       <c r="E1712" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1713" spans="1:5">
@@ -27711,7 +27621,7 @@
         <v>51</v>
       </c>
       <c r="E1715" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1716" spans="1:5">
@@ -27728,7 +27638,7 @@
         <v>513</v>
       </c>
       <c r="E1716" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1717" spans="1:5">
@@ -27745,7 +27655,7 @@
         <v>513</v>
       </c>
       <c r="E1717" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1718" spans="1:5">
@@ -27784,7 +27694,7 @@
         <v>535</v>
       </c>
       <c r="E1720" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -27801,7 +27711,7 @@
         <v>513</v>
       </c>
       <c r="E1721" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1722" spans="1:5">
@@ -27826,10 +27736,10 @@
         <v>6907201</v>
       </c>
       <c r="C1723" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1723" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1724" spans="1:5">
@@ -27846,7 +27756,7 @@
         <v>520</v>
       </c>
       <c r="E1724" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -27904,7 +27814,7 @@
         <v>477</v>
       </c>
       <c r="D1729" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="1730" spans="1:5">
@@ -27954,7 +27864,7 @@
         <v>9</v>
       </c>
       <c r="D1733" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="1734" spans="1:5">
@@ -27971,7 +27881,7 @@
         <v>520</v>
       </c>
       <c r="E1734" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -27988,7 +27898,7 @@
         <v>531</v>
       </c>
       <c r="E1735" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -28016,7 +27926,7 @@
         <v>479</v>
       </c>
       <c r="E1737" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1738" spans="1:5">
@@ -28047,7 +27957,7 @@
         <v>521</v>
       </c>
       <c r="E1739" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1740" spans="1:5">
@@ -28072,10 +27982,10 @@
         <v>482</v>
       </c>
       <c r="D1741" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E1741" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -28122,7 +28032,7 @@
         <v>536</v>
       </c>
       <c r="E1745" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -28139,7 +28049,7 @@
         <v>525</v>
       </c>
       <c r="E1746" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -28164,7 +28074,7 @@
         <v>524</v>
       </c>
       <c r="E1748" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1749" spans="1:5">
@@ -28178,7 +28088,7 @@
         <v>15</v>
       </c>
       <c r="D1749" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1750" spans="1:5">
@@ -28195,7 +28105,7 @@
         <v>529</v>
       </c>
       <c r="E1750" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1751" spans="1:5">
@@ -28242,7 +28152,7 @@
         <v>513</v>
       </c>
       <c r="E1754" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1755" spans="1:5">
@@ -28331,7 +28241,7 @@
         <v>519</v>
       </c>
       <c r="E1761" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1762" spans="1:5">
@@ -28348,7 +28258,7 @@
         <v>526</v>
       </c>
       <c r="E1762" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1763" spans="1:5">
@@ -28379,7 +28289,7 @@
         <v>535</v>
       </c>
       <c r="E1764" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1765" spans="1:5">
@@ -28407,7 +28317,7 @@
         <v>519</v>
       </c>
       <c r="E1766" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1767" spans="1:5">
@@ -28424,7 +28334,7 @@
         <v>513</v>
       </c>
       <c r="E1767" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1768" spans="1:5">
@@ -28438,10 +28348,10 @@
         <v>28</v>
       </c>
       <c r="D1768" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1768" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -28465,15 +28375,6 @@
       <c r="B1770">
         <v>6755203</v>
       </c>
-      <c r="C1770" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1770" t="s">
-        <v>513</v>
-      </c>
-      <c r="E1770" t="s">
-        <v>625</v>
-      </c>
     </row>
     <row r="1771" spans="1:5">
       <c r="A1771" s="1">
@@ -28489,7 +28390,7 @@
         <v>520</v>
       </c>
       <c r="E1771" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1772" spans="1:5">
@@ -28514,7 +28415,7 @@
         <v>519</v>
       </c>
       <c r="E1773" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1774" spans="1:5">
@@ -28531,7 +28432,7 @@
         <v>515</v>
       </c>
       <c r="E1774" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1775" spans="1:5">
@@ -28584,7 +28485,7 @@
         <v>531</v>
       </c>
       <c r="E1778" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1779" spans="1:5">
@@ -28601,7 +28502,7 @@
         <v>518</v>
       </c>
       <c r="E1779" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -28618,7 +28519,7 @@
         <v>513</v>
       </c>
       <c r="E1780" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1781" spans="1:5">
@@ -28635,7 +28536,7 @@
         <v>521</v>
       </c>
       <c r="E1781" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1782" spans="1:5">
@@ -28652,7 +28553,7 @@
         <v>540</v>
       </c>
       <c r="E1782" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -28666,10 +28567,10 @@
         <v>498</v>
       </c>
       <c r="D1783" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E1783" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1784" spans="1:5">
@@ -28711,10 +28612,10 @@
         <v>4</v>
       </c>
       <c r="D1786" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1786" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1787" spans="1:5">
@@ -28728,7 +28629,7 @@
         <v>9</v>
       </c>
       <c r="D1787" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1788" spans="1:5">
@@ -28764,7 +28665,7 @@
         <v>6857142</v>
       </c>
       <c r="C1790" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1791" spans="1:5">
@@ -28778,7 +28679,7 @@
         <v>501</v>
       </c>
       <c r="D1791" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
@@ -28836,7 +28737,7 @@
         <v>9</v>
       </c>
       <c r="D1796" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -28853,7 +28754,7 @@
         <v>545</v>
       </c>
       <c r="E1797" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -28870,7 +28771,7 @@
         <v>535</v>
       </c>
       <c r="E1798" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -28895,7 +28796,7 @@
         <v>521</v>
       </c>
       <c r="E1800" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -28942,7 +28843,7 @@
         <v>513</v>
       </c>
       <c r="E1804" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1805" spans="1:5">
@@ -28959,7 +28860,7 @@
         <v>525</v>
       </c>
       <c r="E1805" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1806" spans="1:5">
@@ -29034,7 +28935,7 @@
         <v>518</v>
       </c>
       <c r="E1811" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1812" spans="1:5">
@@ -29051,7 +28952,7 @@
         <v>516</v>
       </c>
       <c r="E1812" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -29084,7 +28985,7 @@
         <v>513</v>
       </c>
       <c r="E1815" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1816" spans="1:5">
@@ -29095,7 +28996,7 @@
         <v>6836847</v>
       </c>
       <c r="C1816" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1816" t="s">
         <v>532</v>
@@ -29115,7 +29016,7 @@
         <v>526</v>
       </c>
       <c r="E1817" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1818" spans="1:5">
@@ -29160,7 +29061,7 @@
         <v>525</v>
       </c>
       <c r="E1820" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1821" spans="1:5">
@@ -29174,10 +29075,10 @@
         <v>9</v>
       </c>
       <c r="D1821" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1821" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -29216,7 +29117,7 @@
         <v>513</v>
       </c>
       <c r="E1824" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -29233,7 +29134,7 @@
         <v>518</v>
       </c>
       <c r="E1825" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -29247,7 +29148,7 @@
         <v>194</v>
       </c>
       <c r="E1826" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -29275,10 +29176,10 @@
         <v>506</v>
       </c>
       <c r="D1828" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1828" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1829" spans="1:5">
@@ -29292,10 +29193,10 @@
         <v>507</v>
       </c>
       <c r="D1829" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E1829" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1830" spans="1:5">
@@ -29312,7 +29213,7 @@
         <v>516</v>
       </c>
       <c r="E1830" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1831" spans="1:5">
@@ -29329,7 +29230,7 @@
         <v>513</v>
       </c>
       <c r="E1831" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1832" spans="1:5">
@@ -29354,7 +29255,7 @@
         <v>533</v>
       </c>
       <c r="E1833" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1834" spans="1:5">
@@ -29371,7 +29272,7 @@
         <v>513</v>
       </c>
       <c r="E1834" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1835" spans="1:5">
@@ -29388,7 +29289,7 @@
         <v>513</v>
       </c>
       <c r="E1835" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1836" spans="1:5">
@@ -29405,7 +29306,7 @@
         <v>513</v>
       </c>
       <c r="E1836" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -29436,7 +29337,7 @@
         <v>515</v>
       </c>
       <c r="E1838" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1839" spans="1:5">
@@ -29460,12 +29361,6 @@
       <c r="B1840">
         <v>6438488</v>
       </c>
-      <c r="C1840" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1840" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="1841" spans="1:5">
       <c r="A1841" s="1">
@@ -29503,7 +29398,7 @@
         <v>544</v>
       </c>
       <c r="E1843" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1844" spans="1:5">
@@ -29542,7 +29437,7 @@
         <v>515</v>
       </c>
       <c r="E1846" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1847" spans="1:5">
@@ -29559,7 +29454,7 @@
         <v>521</v>
       </c>
       <c r="E1847" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1848" spans="1:5">
@@ -29612,7 +29507,7 @@
         <v>521</v>
       </c>
       <c r="E1851" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1852" spans="1:5">
@@ -29648,10 +29543,10 @@
         <v>510</v>
       </c>
       <c r="D1854" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E1854" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1855" spans="1:5">
@@ -29679,7 +29574,7 @@
         <v>4</v>
       </c>
       <c r="D1856" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1857" spans="1:5">
@@ -29704,7 +29599,7 @@
         <v>519</v>
       </c>
       <c r="E1858" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1859" spans="1:5">
@@ -29721,7 +29616,7 @@
         <v>531</v>
       </c>
       <c r="E1859" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1860" spans="1:5">
@@ -29743,7 +29638,7 @@
         <v>16</v>
       </c>
       <c r="E1861" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1862" spans="1:5">
@@ -29782,7 +29677,7 @@
         <v>513</v>
       </c>
       <c r="E1864" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1865" spans="1:5">
